--- a/Doc/約定履歴.xlsx
+++ b/Doc/約定履歴.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sator\OneDrive\ドキュメント\03_資産運用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_D1A6EF59BEF6A9B31B753D4E080DF79C03FB5B57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{168DD85A-826F-AE40-A31C-9BDDE4B5DB33}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_D1A6EF59BEF6A9B31B753D4E080DF79C03FB5B57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E85F467-463D-0A4F-AA65-6AF4EB1A6566}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2017'!$B$3:$Q$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021済'!$B$3:$Q$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2022済'!$B$3:$U$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">約定履歴!$B$3:$W$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">約定履歴!$B$3:$W$402</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="344">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -1410,6 +1410,60 @@
   <si>
     <t>MS &amp;AD</t>
   </si>
+  <si>
+    <t>9503</t>
+  </si>
+  <si>
+    <t>関西電力</t>
+  </si>
+  <si>
+    <t>9508</t>
+  </si>
+  <si>
+    <t>九州電力</t>
+  </si>
+  <si>
+    <t>3289</t>
+  </si>
+  <si>
+    <t>東急不動産HD</t>
+  </si>
+  <si>
+    <t>4617</t>
+  </si>
+  <si>
+    <t>中国塗料</t>
+  </si>
+  <si>
+    <t>6407</t>
+  </si>
+  <si>
+    <t>CKD</t>
+  </si>
+  <si>
+    <t>7729</t>
+  </si>
+  <si>
+    <t>東京精密</t>
+  </si>
+  <si>
+    <t>2379</t>
+  </si>
+  <si>
+    <t>ディップ</t>
+  </si>
+  <si>
+    <t>パーソルHD</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>オープンアップグループ</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
 </sst>
 </file>
 
@@ -1784,11 +1838,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3415,13 +3469,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:W1001"/>
+  <dimension ref="B2:W1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="J163" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="B163" sqref="B163"/>
+      <selection pane="bottomRight" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
@@ -3529,7 +3583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="4" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B4" s="29"/>
       <c r="C4" s="49"/>
       <c r="D4" s="30"/>
@@ -3540,8 +3594,8 @@
       <c r="I4" s="31"/>
       <c r="J4" s="30"/>
       <c r="K4" s="32">
-        <f>SUM(K5:K1001)</f>
-        <v>49944737.931999996</v>
+        <f>SUM(K5:K1002)</f>
+        <v>52230977.931999996</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="33"/>
@@ -3550,20 +3604,20 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="35">
-        <f>SUM(R5:R1001)</f>
-        <v>41533354</v>
+        <f>SUM(R5:R1002)</f>
+        <v>43115764</v>
       </c>
       <c r="S4" s="36">
-        <f>SUM(S5:S1001)</f>
-        <v>2486456</v>
+        <f>SUM(S5:S1002)</f>
+        <v>2506366</v>
       </c>
       <c r="T4" s="37" t="e">
-        <f>AVERAGE(T5:T1001)</f>
+        <f>AVERAGE(T5:T1002)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U4" s="38"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="5" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B5" s="39">
         <v>1</v>
       </c>
@@ -3623,7 +3677,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="6" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B6" s="39">
         <v>2</v>
       </c>
@@ -3683,7 +3737,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="7" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B7" s="39">
         <v>3</v>
       </c>
@@ -3743,7 +3797,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="8" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B8" s="39">
         <v>4</v>
       </c>
@@ -3803,7 +3857,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="9" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B9" s="39">
         <v>5</v>
       </c>
@@ -3865,7 +3919,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="10" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B10" s="39">
         <v>6</v>
       </c>
@@ -3927,7 +3981,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="11" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B11" s="39">
         <v>7</v>
       </c>
@@ -3989,7 +4043,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="12" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B12" s="39">
         <v>8</v>
       </c>
@@ -4051,7 +4105,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="13" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B13" s="39">
         <v>9</v>
       </c>
@@ -4113,7 +4167,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="14" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B14" s="39">
         <v>10</v>
       </c>
@@ -4164,7 +4218,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="15" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B15" s="39">
         <v>11</v>
       </c>
@@ -4215,7 +4269,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="16" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B16" s="39">
         <v>12</v>
       </c>
@@ -4266,7 +4320,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="17" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B17" s="39">
         <v>13</v>
       </c>
@@ -4317,7 +4371,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="18" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B18" s="39">
         <v>14</v>
       </c>
@@ -4368,7 +4422,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="19" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B19" s="39">
         <v>15</v>
       </c>
@@ -4419,7 +4473,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="20" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B20" s="39">
         <v>16</v>
       </c>
@@ -4470,7 +4524,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="21" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B21" s="39">
         <v>17</v>
       </c>
@@ -4521,7 +4575,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="22" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B22" s="39">
         <v>18</v>
       </c>
@@ -4583,7 +4637,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="23" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B23" s="39">
         <v>19</v>
       </c>
@@ -4645,7 +4699,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="24" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B24" s="39">
         <v>20</v>
       </c>
@@ -4707,7 +4761,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="25" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B25" s="39">
         <v>21</v>
       </c>
@@ -4769,7 +4823,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="26" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B26" s="39">
         <v>22</v>
       </c>
@@ -4831,7 +4885,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="27" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B27" s="39">
         <v>23</v>
       </c>
@@ -4893,7 +4947,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="28" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B28" s="39">
         <v>24</v>
       </c>
@@ -4955,7 +5009,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="29" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B29" s="39">
         <v>25</v>
       </c>
@@ -5017,7 +5071,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="30" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B30" s="39">
         <v>26</v>
       </c>
@@ -5079,7 +5133,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="31" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B31" s="39">
         <v>27</v>
       </c>
@@ -5141,7 +5195,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="32" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B32" s="39">
         <v>28</v>
       </c>
@@ -5203,7 +5257,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="33" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B33" s="39">
         <v>29</v>
       </c>
@@ -5265,7 +5319,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="34" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B34" s="39">
         <v>30</v>
       </c>
@@ -5327,7 +5381,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="35" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B35" s="39">
         <v>31</v>
       </c>
@@ -5389,7 +5443,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="36" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B36" s="39">
         <v>32</v>
       </c>
@@ -5451,7 +5505,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="37" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B37" s="39">
         <v>33</v>
       </c>
@@ -5513,7 +5567,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="38" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B38" s="39">
         <v>34</v>
       </c>
@@ -5575,7 +5629,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="39" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B39" s="39">
         <v>35</v>
       </c>
@@ -5637,7 +5691,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="40" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B40" s="39">
         <v>36</v>
       </c>
@@ -5699,7 +5753,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="41" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B41" s="39">
         <v>37</v>
       </c>
@@ -5761,7 +5815,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="42" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B42" s="39">
         <v>38</v>
       </c>
@@ -5823,7 +5877,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="43" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B43" s="39">
         <v>39</v>
       </c>
@@ -5885,7 +5939,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="44" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B44" s="39">
         <v>40</v>
       </c>
@@ -5947,7 +6001,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="45" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B45" s="39">
         <v>41</v>
       </c>
@@ -6009,7 +6063,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="46" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B46" s="39">
         <v>42</v>
       </c>
@@ -6071,7 +6125,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="47" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B47" s="39">
         <v>43</v>
       </c>
@@ -6133,7 +6187,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="48" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B48" s="39">
         <v>44</v>
       </c>
@@ -6195,7 +6249,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="49" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B49" s="39">
         <v>45</v>
       </c>
@@ -6257,7 +6311,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="50" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B50" s="39">
         <v>46</v>
       </c>
@@ -6319,7 +6373,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="51" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B51" s="39">
         <v>47</v>
       </c>
@@ -6381,7 +6435,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="52" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B52" s="39">
         <v>48</v>
       </c>
@@ -6443,7 +6497,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="53" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B53" s="39">
         <v>49</v>
       </c>
@@ -6505,7 +6559,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="54" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B54" s="39">
         <v>50</v>
       </c>
@@ -6567,7 +6621,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="55" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B55" s="39">
         <v>51</v>
       </c>
@@ -6629,7 +6683,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="56" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B56" s="39">
         <v>52</v>
       </c>
@@ -6691,7 +6745,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="57" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B57" s="39">
         <v>53</v>
       </c>
@@ -6753,7 +6807,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="58" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B58" s="39">
         <v>54</v>
       </c>
@@ -6815,7 +6869,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="59" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B59" s="39">
         <v>55</v>
       </c>
@@ -6877,7 +6931,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="60" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B60" s="39">
         <v>56</v>
       </c>
@@ -6939,7 +6993,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="61" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B61" s="39">
         <v>57</v>
       </c>
@@ -7001,7 +7055,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="62" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B62" s="39">
         <v>58</v>
       </c>
@@ -7063,7 +7117,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="63" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B63" s="39">
         <v>59</v>
       </c>
@@ -7125,7 +7179,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="64" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B64" s="39">
         <v>60</v>
       </c>
@@ -7187,7 +7241,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="65" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B65" s="39">
         <v>61</v>
       </c>
@@ -7249,7 +7303,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="66" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B66" s="39">
         <v>62</v>
       </c>
@@ -7311,7 +7365,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="67" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B67" s="39">
         <v>63</v>
       </c>
@@ -7373,7 +7427,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="68" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B68" s="39">
         <v>64</v>
       </c>
@@ -7435,7 +7489,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="69" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B69" s="39">
         <v>65</v>
       </c>
@@ -7497,7 +7551,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="70" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B70" s="39">
         <v>66</v>
       </c>
@@ -7555,11 +7609,11 @@
       </c>
       <c r="U70" s="47"/>
       <c r="W70" s="18">
-        <f t="shared" ref="W70:W134" si="15">IF(L70&lt;&gt;"",YEAR(L70),"")</f>
+        <f t="shared" ref="W70:W135" si="15">IF(L70&lt;&gt;"",YEAR(L70),"")</f>
         <v>2015</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="71" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B71" s="39">
         <v>67</v>
       </c>
@@ -7621,7 +7675,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="72" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B72" s="39">
         <v>68</v>
       </c>
@@ -7683,7 +7737,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="73" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B73" s="39">
         <v>69</v>
       </c>
@@ -7745,7 +7799,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="74" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B74" s="39">
         <v>70</v>
       </c>
@@ -7807,7 +7861,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="75" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B75" s="39">
         <v>71</v>
       </c>
@@ -7869,7 +7923,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="76" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B76" s="39">
         <v>72</v>
       </c>
@@ -7931,7 +7985,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="77" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B77" s="39">
         <v>73</v>
       </c>
@@ -7993,7 +8047,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="78" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B78" s="39">
         <v>74</v>
       </c>
@@ -8055,7 +8109,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="79" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B79" s="39">
         <v>75</v>
       </c>
@@ -8117,7 +8171,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="80" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B80" s="39">
         <v>76</v>
       </c>
@@ -8179,7 +8233,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="81" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B81" s="39">
         <v>77</v>
       </c>
@@ -8241,7 +8295,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="82" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B82" s="39">
         <v>78</v>
       </c>
@@ -8307,7 +8361,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="83" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B83" s="39">
         <v>79</v>
       </c>
@@ -8377,7 +8431,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="84" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B84" s="39">
         <v>80</v>
       </c>
@@ -8447,7 +8501,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="85" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B85" s="39">
         <v>81</v>
       </c>
@@ -8517,7 +8571,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="86" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B86" s="39">
         <v>82</v>
       </c>
@@ -8587,7 +8641,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="87" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -8657,7 +8711,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="88" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B88" s="39">
         <v>84</v>
       </c>
@@ -8727,7 +8781,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="89" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -8799,7 +8853,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="90" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B90" s="39">
         <v>86</v>
       </c>
@@ -8869,7 +8923,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="91" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B91" s="39">
         <v>87</v>
       </c>
@@ -8929,7 +8983,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="92" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B92" s="39">
         <v>88</v>
       </c>
@@ -8999,7 +9053,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="93" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B93" s="39">
         <v>89</v>
       </c>
@@ -9059,7 +9113,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="94" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B94" s="39">
         <v>90</v>
       </c>
@@ -9129,7 +9183,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="95" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B95" s="39">
         <v>91</v>
       </c>
@@ -9201,7 +9255,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="96" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B96" s="39">
         <v>92</v>
       </c>
@@ -9261,7 +9315,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="97" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B97" s="39">
         <v>93</v>
       </c>
@@ -9331,7 +9385,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="98" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B98" s="39">
         <v>94</v>
       </c>
@@ -9401,7 +9455,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="99" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B99" s="39">
         <v>95</v>
       </c>
@@ -9471,7 +9525,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="100" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B100" s="39">
         <v>96</v>
       </c>
@@ -9531,7 +9585,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="101" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B101" s="39">
         <v>97</v>
       </c>
@@ -9601,7 +9655,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="102" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B102" s="39">
         <v>98</v>
       </c>
@@ -9661,7 +9715,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="103" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B103" s="39">
         <v>99</v>
       </c>
@@ -9745,14 +9799,14 @@
         <v>246</v>
       </c>
       <c r="F104" s="42">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G104" s="43">
         <v>151.80000000000001</v>
       </c>
       <c r="H104" s="44">
         <f t="shared" si="9"/>
-        <v>75900</v>
+        <v>15180.000000000002</v>
       </c>
       <c r="I104" s="45">
         <v>0</v>
@@ -9762,33 +9816,39 @@
       </c>
       <c r="K104" s="44">
         <f t="shared" si="10"/>
-        <v>75900</v>
-      </c>
-      <c r="L104" s="50"/>
-      <c r="M104" s="42"/>
-      <c r="N104" s="43"/>
+        <v>15180.000000000002</v>
+      </c>
+      <c r="L104" s="50">
+        <v>45645</v>
+      </c>
+      <c r="M104" s="42">
+        <v>100</v>
+      </c>
+      <c r="N104" s="43">
+        <v>153.9</v>
+      </c>
       <c r="O104" s="44">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>15390</v>
       </c>
       <c r="P104" s="45"/>
       <c r="Q104" s="45"/>
       <c r="R104" s="44">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="44" t="str">
+        <v>15390</v>
+      </c>
+      <c r="S104" s="44">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="T104" s="46" t="str">
+        <v>209.99999999999818</v>
+      </c>
+      <c r="T104" s="46">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1.3833992094861539E-2</v>
       </c>
       <c r="U104" s="47"/>
-      <c r="W104" s="18" t="str">
+      <c r="W104" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="105" spans="2:23" x14ac:dyDescent="0.1">
@@ -9796,274 +9856,266 @@
         <v>101</v>
       </c>
       <c r="C105" s="50">
+        <v>45432</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="E105" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F105" s="42">
+        <v>400</v>
+      </c>
+      <c r="G105" s="43">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="H105" s="44">
+        <f>F105*G105</f>
+        <v>60720.000000000007</v>
+      </c>
+      <c r="I105" s="45">
+        <v>0</v>
+      </c>
+      <c r="J105" s="45">
+        <v>0</v>
+      </c>
+      <c r="K105" s="44">
+        <f>H105+I105+J105</f>
+        <v>60720.000000000007</v>
+      </c>
+      <c r="L105" s="50">
+        <v>45645</v>
+      </c>
+      <c r="M105" s="42">
+        <v>400</v>
+      </c>
+      <c r="N105" s="43">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="O105" s="44">
+        <f>M105*N105</f>
+        <v>61920.000000000007</v>
+      </c>
+      <c r="P105" s="45"/>
+      <c r="Q105" s="45"/>
+      <c r="R105" s="44">
+        <f>O105-P105-Q105</f>
+        <v>61920.000000000007</v>
+      </c>
+      <c r="S105" s="44">
+        <f>IF(L105&lt;&gt;"",R105-K105,"")</f>
+        <v>1200</v>
+      </c>
+      <c r="T105" s="46">
+        <f>IF(S105&lt;&gt;"",S105/K105,"")</f>
+        <v>1.9762845849802368E-2</v>
+      </c>
+      <c r="U105" s="47"/>
+    </row>
+    <row r="106" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B106" s="39">
+        <v>102</v>
+      </c>
+      <c r="C106" s="50">
         <v>45439</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="D106" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E106" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F106" s="42">
         <v>100</v>
       </c>
-      <c r="G105" s="43">
+      <c r="G106" s="43">
         <v>898</v>
       </c>
-      <c r="H105" s="44">
-        <f t="shared" ref="H105:H169" si="16">F105*G105</f>
+      <c r="H106" s="44">
+        <f t="shared" ref="H106:H170" si="16">F106*G106</f>
         <v>89800</v>
       </c>
-      <c r="I105" s="45">
-        <v>0</v>
-      </c>
-      <c r="J105" s="45">
-        <v>0</v>
-      </c>
-      <c r="K105" s="44">
-        <f t="shared" ref="K105:K169" si="17">H105+I105+J105</f>
+      <c r="I106" s="45">
+        <v>0</v>
+      </c>
+      <c r="J106" s="45">
+        <v>0</v>
+      </c>
+      <c r="K106" s="44">
+        <f t="shared" ref="K106:K170" si="17">H106+I106+J106</f>
         <v>89800</v>
       </c>
-      <c r="L105" s="50">
+      <c r="L106" s="50">
         <v>45562</v>
       </c>
-      <c r="M105" s="42">
+      <c r="M106" s="42">
         <v>100</v>
       </c>
-      <c r="N105" s="43">
+      <c r="N106" s="43">
         <v>920</v>
       </c>
-      <c r="O105" s="44">
-        <f t="shared" ref="O105:O169" si="18">M105*N105</f>
+      <c r="O106" s="44">
+        <f t="shared" ref="O106:O170" si="18">M106*N106</f>
         <v>92000</v>
       </c>
-      <c r="P105" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="45">
+      <c r="P106" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="45">
         <v>446</v>
       </c>
-      <c r="R105" s="44">
-        <f t="shared" ref="R105:R169" si="19">O105-P105-Q105</f>
+      <c r="R106" s="44">
+        <f t="shared" ref="R106:R170" si="19">O106-P106-Q106</f>
         <v>91554</v>
       </c>
-      <c r="S105" s="44">
-        <f t="shared" ref="S105:S169" si="20">IF(L105&lt;&gt;"",R105-K105,"")</f>
+      <c r="S106" s="44">
+        <f t="shared" ref="S106:S170" si="20">IF(L106&lt;&gt;"",R106-K106,"")</f>
         <v>1754</v>
       </c>
-      <c r="T105" s="46">
-        <f t="shared" ref="T105:T169" si="21">IF(S105&lt;&gt;"",S105/K105,"")</f>
+      <c r="T106" s="46">
+        <f t="shared" ref="T106:T170" si="21">IF(S106&lt;&gt;"",S106/K106,"")</f>
         <v>1.9532293986636973E-2</v>
       </c>
-      <c r="U105" s="47"/>
-      <c r="W105" s="18">
+      <c r="U106" s="47"/>
+      <c r="W106" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B106" s="39">
-        <v>101</v>
-      </c>
-      <c r="C106" s="50">
-        <v>45439</v>
-      </c>
-      <c r="D106" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="E106" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="F106" s="42">
-        <v>100</v>
-      </c>
-      <c r="G106" s="43">
-        <v>898</v>
-      </c>
-      <c r="H106" s="44">
-        <f t="shared" ref="H106" si="22">F106*G106</f>
-        <v>89800</v>
-      </c>
-      <c r="I106" s="45">
-        <v>0</v>
-      </c>
-      <c r="J106" s="45">
-        <v>0</v>
-      </c>
-      <c r="K106" s="44">
-        <f t="shared" ref="K106" si="23">H106+I106+J106</f>
-        <v>89800</v>
-      </c>
-      <c r="L106" s="50">
-        <v>45565</v>
-      </c>
-      <c r="M106" s="42">
-        <v>100</v>
-      </c>
-      <c r="N106" s="43">
-        <v>914.8</v>
-      </c>
-      <c r="O106" s="44">
-        <f t="shared" ref="O106" si="24">M106*N106</f>
-        <v>91480</v>
-      </c>
-      <c r="P106" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="45">
-        <v>341</v>
-      </c>
-      <c r="R106" s="44">
-        <f t="shared" ref="R106" si="25">O106-P106-Q106</f>
-        <v>91139</v>
-      </c>
-      <c r="S106" s="44">
-        <f t="shared" ref="S106" si="26">IF(L106&lt;&gt;"",R106-K106,"")</f>
-        <v>1339</v>
-      </c>
-      <c r="T106" s="46">
-        <f t="shared" ref="T106" si="27">IF(S106&lt;&gt;"",S106/K106,"")</f>
-        <v>1.4910913140311803E-2</v>
-      </c>
-      <c r="U106" s="47"/>
-      <c r="W106" s="18">
-        <f t="shared" ref="W106" si="28">IF(L106&lt;&gt;"",YEAR(L106),"")</f>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="107" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B107" s="39">
         <v>103</v>
       </c>
       <c r="C107" s="50">
-        <v>45460</v>
+        <v>45439</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E107" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F107" s="42">
         <v>100</v>
       </c>
       <c r="G107" s="43">
+        <v>898</v>
+      </c>
+      <c r="H107" s="44">
+        <f t="shared" ref="H107" si="22">F107*G107</f>
+        <v>89800</v>
+      </c>
+      <c r="I107" s="45">
+        <v>0</v>
+      </c>
+      <c r="J107" s="45">
+        <v>0</v>
+      </c>
+      <c r="K107" s="44">
+        <f t="shared" ref="K107" si="23">H107+I107+J107</f>
+        <v>89800</v>
+      </c>
+      <c r="L107" s="50">
+        <v>45565</v>
+      </c>
+      <c r="M107" s="42">
+        <v>100</v>
+      </c>
+      <c r="N107" s="43">
+        <v>914.8</v>
+      </c>
+      <c r="O107" s="44">
+        <f t="shared" ref="O107" si="24">M107*N107</f>
+        <v>91480</v>
+      </c>
+      <c r="P107" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="45">
+        <v>341</v>
+      </c>
+      <c r="R107" s="44">
+        <f t="shared" ref="R107" si="25">O107-P107-Q107</f>
+        <v>91139</v>
+      </c>
+      <c r="S107" s="44">
+        <f t="shared" ref="S107" si="26">IF(L107&lt;&gt;"",R107-K107,"")</f>
+        <v>1339</v>
+      </c>
+      <c r="T107" s="46">
+        <f t="shared" ref="T107" si="27">IF(S107&lt;&gt;"",S107/K107,"")</f>
+        <v>1.4910913140311803E-2</v>
+      </c>
+      <c r="U107" s="47"/>
+      <c r="W107" s="18">
+        <f t="shared" ref="W107" si="28">IF(L107&lt;&gt;"",YEAR(L107),"")</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="108" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B108" s="39">
+        <v>104</v>
+      </c>
+      <c r="C108" s="50">
+        <v>45460</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E108" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F108" s="42">
+        <v>100</v>
+      </c>
+      <c r="G108" s="43">
         <v>2445</v>
       </c>
-      <c r="H107" s="44">
+      <c r="H108" s="44">
         <f t="shared" si="16"/>
         <v>244500</v>
       </c>
-      <c r="I107" s="45">
-        <v>0</v>
-      </c>
-      <c r="J107" s="45">
-        <v>0</v>
-      </c>
-      <c r="K107" s="44">
+      <c r="I108" s="45">
+        <v>0</v>
+      </c>
+      <c r="J108" s="45">
+        <v>0</v>
+      </c>
+      <c r="K108" s="44">
         <f t="shared" si="17"/>
         <v>244500</v>
       </c>
-      <c r="L107" s="50">
+      <c r="L108" s="50">
         <v>45481</v>
       </c>
-      <c r="M107" s="42">
+      <c r="M108" s="42">
         <v>100</v>
       </c>
-      <c r="N107" s="43">
+      <c r="N108" s="43">
         <v>2725</v>
       </c>
-      <c r="O107" s="44">
+      <c r="O108" s="44">
         <f t="shared" si="18"/>
         <v>272500</v>
       </c>
-      <c r="P107" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="45">
+      <c r="P108" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="45">
         <v>5688</v>
       </c>
-      <c r="R107" s="44">
+      <c r="R108" s="44">
         <f t="shared" si="19"/>
         <v>266812</v>
       </c>
-      <c r="S107" s="44">
+      <c r="S108" s="44">
         <f t="shared" si="20"/>
         <v>22312</v>
       </c>
-      <c r="T107" s="46">
+      <c r="T108" s="46">
         <f t="shared" si="21"/>
         <v>9.1255623721881396E-2</v>
-      </c>
-      <c r="U107" s="47"/>
-      <c r="W107" s="18">
-        <f t="shared" si="15"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B108" s="39">
-        <v>104</v>
-      </c>
-      <c r="C108" s="50">
-        <v>45460</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="E108" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="F108" s="42">
-        <v>100</v>
-      </c>
-      <c r="G108" s="43">
-        <v>3380</v>
-      </c>
-      <c r="H108" s="44">
-        <f t="shared" si="16"/>
-        <v>338000</v>
-      </c>
-      <c r="I108" s="45">
-        <v>0</v>
-      </c>
-      <c r="J108" s="45">
-        <v>0</v>
-      </c>
-      <c r="K108" s="44">
-        <f t="shared" si="17"/>
-        <v>338000</v>
-      </c>
-      <c r="L108" s="50">
-        <v>45492</v>
-      </c>
-      <c r="M108" s="42">
-        <v>100</v>
-      </c>
-      <c r="N108" s="43">
-        <v>3250</v>
-      </c>
-      <c r="O108" s="44">
-        <f t="shared" si="18"/>
-        <v>325000</v>
-      </c>
-      <c r="P108" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="45">
-        <v>0</v>
-      </c>
-      <c r="R108" s="44">
-        <f t="shared" si="19"/>
-        <v>325000</v>
-      </c>
-      <c r="S108" s="44">
-        <f t="shared" si="20"/>
-        <v>-13000</v>
-      </c>
-      <c r="T108" s="46">
-        <f t="shared" si="21"/>
-        <v>-3.8461538461538464E-2</v>
       </c>
       <c r="U108" s="47"/>
       <c r="W108" s="18">
@@ -10071,28 +10123,28 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="109" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B109" s="39">
         <v>105</v>
       </c>
       <c r="C109" s="50">
-        <v>45467</v>
+        <v>45460</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E109" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F109" s="42">
         <v>100</v>
       </c>
       <c r="G109" s="43">
-        <v>3300</v>
+        <v>3380</v>
       </c>
       <c r="H109" s="44">
         <f t="shared" si="16"/>
-        <v>330000</v>
+        <v>338000</v>
       </c>
       <c r="I109" s="45">
         <v>0</v>
@@ -10102,59 +10154,67 @@
       </c>
       <c r="K109" s="44">
         <f t="shared" si="17"/>
-        <v>330000</v>
-      </c>
-      <c r="L109" s="50"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="43"/>
+        <v>338000</v>
+      </c>
+      <c r="L109" s="50">
+        <v>45492</v>
+      </c>
+      <c r="M109" s="42">
+        <v>100</v>
+      </c>
+      <c r="N109" s="43">
+        <v>3250</v>
+      </c>
       <c r="O109" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P109" s="45"/>
-      <c r="Q109" s="45"/>
+        <v>325000</v>
+      </c>
+      <c r="P109" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="45">
+        <v>0</v>
+      </c>
       <c r="R109" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S109" s="44" t="str">
+        <v>325000</v>
+      </c>
+      <c r="S109" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T109" s="46" t="str">
+        <v>-13000</v>
+      </c>
+      <c r="T109" s="46">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U109" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="W109" s="18" t="str">
+        <v>-3.8461538461538464E-2</v>
+      </c>
+      <c r="U109" s="47"/>
+      <c r="W109" s="18">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B110" s="39">
         <v>106</v>
       </c>
       <c r="C110" s="50">
-        <v>45476</v>
+        <v>45467</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E110" s="41" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F110" s="42">
         <v>100</v>
       </c>
       <c r="G110" s="43">
-        <v>2712</v>
+        <v>3300</v>
       </c>
       <c r="H110" s="44">
         <f t="shared" si="16"/>
-        <v>271200</v>
+        <v>330000</v>
       </c>
       <c r="I110" s="45">
         <v>0</v>
@@ -10164,141 +10224,131 @@
       </c>
       <c r="K110" s="44">
         <f t="shared" si="17"/>
-        <v>271200</v>
-      </c>
-      <c r="L110" s="50">
-        <v>45492</v>
-      </c>
-      <c r="M110" s="42">
-        <v>100</v>
-      </c>
-      <c r="N110" s="43">
-        <v>3250</v>
-      </c>
+        <v>330000</v>
+      </c>
+      <c r="L110" s="50"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="43"/>
       <c r="O110" s="44">
         <f t="shared" si="18"/>
-        <v>325000</v>
-      </c>
-      <c r="P110" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="45">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
       <c r="R110" s="44">
         <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="T110" s="46" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="U110" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="W110" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B111" s="39">
+        <v>107</v>
+      </c>
+      <c r="C111" s="50">
+        <v>45476</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111" s="42">
+        <v>100</v>
+      </c>
+      <c r="G111" s="43">
+        <v>2712</v>
+      </c>
+      <c r="H111" s="44">
+        <f t="shared" si="16"/>
+        <v>271200</v>
+      </c>
+      <c r="I111" s="45">
+        <v>0</v>
+      </c>
+      <c r="J111" s="45">
+        <v>0</v>
+      </c>
+      <c r="K111" s="44">
+        <f t="shared" si="17"/>
+        <v>271200</v>
+      </c>
+      <c r="L111" s="50">
+        <v>45492</v>
+      </c>
+      <c r="M111" s="42">
+        <v>100</v>
+      </c>
+      <c r="N111" s="43">
+        <v>3250</v>
+      </c>
+      <c r="O111" s="44">
+        <f t="shared" si="18"/>
         <v>325000</v>
       </c>
-      <c r="S110" s="44">
+      <c r="P111" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="45">
+        <v>0</v>
+      </c>
+      <c r="R111" s="44">
+        <f t="shared" si="19"/>
+        <v>325000</v>
+      </c>
+      <c r="S111" s="44">
         <f t="shared" si="20"/>
         <v>53800</v>
       </c>
-      <c r="T110" s="46">
+      <c r="T111" s="46">
         <f t="shared" si="21"/>
         <v>0.19837758112094395</v>
       </c>
-      <c r="U110" s="47" t="s">
+      <c r="U111" s="47" t="s">
         <v>271</v>
-      </c>
-      <c r="W110" s="18">
-        <f t="shared" si="15"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B111" s="39">
-        <v>107</v>
-      </c>
-      <c r="C111" s="50">
-        <v>45489</v>
-      </c>
-      <c r="D111" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="E111" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="F111" s="42">
-        <v>100</v>
-      </c>
-      <c r="G111" s="43">
-        <v>1814</v>
-      </c>
-      <c r="H111" s="44">
-        <f t="shared" si="16"/>
-        <v>181400</v>
-      </c>
-      <c r="I111" s="45">
-        <v>0</v>
-      </c>
-      <c r="J111" s="45">
-        <v>0</v>
-      </c>
-      <c r="K111" s="44">
-        <f t="shared" si="17"/>
-        <v>181400</v>
-      </c>
-      <c r="L111" s="50">
-        <v>45533</v>
-      </c>
-      <c r="M111" s="42">
-        <v>100</v>
-      </c>
-      <c r="N111" s="43">
-        <v>2100</v>
-      </c>
-      <c r="O111" s="44">
-        <f t="shared" si="18"/>
-        <v>210000</v>
-      </c>
-      <c r="P111" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="45">
-        <v>5810</v>
-      </c>
-      <c r="R111" s="44">
-        <f t="shared" si="19"/>
-        <v>204190</v>
-      </c>
-      <c r="S111" s="44">
-        <f t="shared" si="20"/>
-        <v>22790</v>
-      </c>
-      <c r="T111" s="46">
-        <f t="shared" si="21"/>
-        <v>0.12563395810363837</v>
-      </c>
-      <c r="U111" s="47" t="s">
-        <v>276</v>
       </c>
       <c r="W111" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="112" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B112" s="39">
         <v>108</v>
       </c>
       <c r="C112" s="50">
-        <v>45495</v>
+        <v>45489</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="E112" s="41" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F112" s="42">
         <v>100</v>
       </c>
       <c r="G112" s="43">
-        <v>2794</v>
+        <v>1814</v>
       </c>
       <c r="H112" s="44">
         <f t="shared" si="16"/>
-        <v>279400</v>
+        <v>181400</v>
       </c>
       <c r="I112" s="45">
         <v>0</v>
@@ -10308,48 +10358,48 @@
       </c>
       <c r="K112" s="44">
         <f t="shared" si="17"/>
-        <v>279400</v>
+        <v>181400</v>
       </c>
       <c r="L112" s="50">
-        <v>45538</v>
+        <v>45533</v>
       </c>
       <c r="M112" s="42">
         <v>100</v>
       </c>
       <c r="N112" s="43">
-        <v>3088</v>
+        <v>2100</v>
       </c>
       <c r="O112" s="44">
         <f t="shared" si="18"/>
-        <v>308800</v>
+        <v>210000</v>
       </c>
       <c r="P112" s="45">
         <v>0</v>
       </c>
       <c r="Q112" s="45">
-        <v>0</v>
+        <v>5810</v>
       </c>
       <c r="R112" s="44">
         <f t="shared" si="19"/>
-        <v>308800</v>
+        <v>204190</v>
       </c>
       <c r="S112" s="44">
         <f t="shared" si="20"/>
-        <v>29400</v>
+        <v>22790</v>
       </c>
       <c r="T112" s="46">
         <f t="shared" si="21"/>
-        <v>0.10522548317823908</v>
+        <v>0.12563395810363837</v>
       </c>
       <c r="U112" s="47" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="W112" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="113" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B113" s="39">
         <v>109</v>
       </c>
@@ -10357,20 +10407,20 @@
         <v>45495</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F113" s="42">
         <v>100</v>
       </c>
       <c r="G113" s="43">
-        <v>3520</v>
+        <v>2794</v>
       </c>
       <c r="H113" s="44">
         <f t="shared" si="16"/>
-        <v>352000</v>
+        <v>279400</v>
       </c>
       <c r="I113" s="45">
         <v>0</v>
@@ -10380,38 +10430,38 @@
       </c>
       <c r="K113" s="44">
         <f t="shared" si="17"/>
-        <v>352000</v>
+        <v>279400</v>
       </c>
       <c r="L113" s="50">
-        <v>45539</v>
+        <v>45538</v>
       </c>
       <c r="M113" s="42">
         <v>100</v>
       </c>
       <c r="N113" s="43">
-        <v>3600</v>
+        <v>3088</v>
       </c>
       <c r="O113" s="44">
         <f t="shared" si="18"/>
-        <v>360000</v>
+        <v>308800</v>
       </c>
       <c r="P113" s="45">
         <v>0</v>
       </c>
       <c r="Q113" s="45">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="R113" s="44">
         <f t="shared" si="19"/>
-        <v>358375</v>
+        <v>308800</v>
       </c>
       <c r="S113" s="44">
         <f t="shared" si="20"/>
-        <v>6375</v>
+        <v>29400</v>
       </c>
       <c r="T113" s="46">
         <f t="shared" si="21"/>
-        <v>1.8110795454545456E-2</v>
+        <v>0.10522548317823908</v>
       </c>
       <c r="U113" s="47" t="s">
         <v>270</v>
@@ -10421,28 +10471,28 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="114" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B114" s="39">
         <v>110</v>
       </c>
       <c r="C114" s="50">
-        <v>45505</v>
+        <v>45495</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F114" s="42">
         <v>100</v>
       </c>
       <c r="G114" s="43">
-        <v>2318</v>
+        <v>3520</v>
       </c>
       <c r="H114" s="44">
         <f t="shared" si="16"/>
-        <v>231800</v>
+        <v>352000</v>
       </c>
       <c r="I114" s="45">
         <v>0</v>
@@ -10452,57 +10502,69 @@
       </c>
       <c r="K114" s="44">
         <f t="shared" si="17"/>
-        <v>231800</v>
-      </c>
-      <c r="L114" s="50"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="43"/>
+        <v>352000</v>
+      </c>
+      <c r="L114" s="50">
+        <v>45539</v>
+      </c>
+      <c r="M114" s="42">
+        <v>100</v>
+      </c>
+      <c r="N114" s="43">
+        <v>3600</v>
+      </c>
       <c r="O114" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P114" s="45"/>
-      <c r="Q114" s="45"/>
+        <v>360000</v>
+      </c>
+      <c r="P114" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="45">
+        <v>1625</v>
+      </c>
       <c r="R114" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S114" s="44" t="str">
+        <v>358375</v>
+      </c>
+      <c r="S114" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T114" s="46" t="str">
+        <v>6375</v>
+      </c>
+      <c r="T114" s="46">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U114" s="47"/>
-      <c r="W114" s="18" t="str">
+        <v>1.8110795454545456E-2</v>
+      </c>
+      <c r="U114" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="W114" s="18">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B115" s="39">
         <v>111</v>
       </c>
       <c r="C115" s="50">
-        <v>45506</v>
+        <v>45505</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F115" s="42">
         <v>100</v>
       </c>
       <c r="G115" s="43">
-        <v>2867</v>
+        <v>2318</v>
       </c>
       <c r="H115" s="44">
         <f t="shared" si="16"/>
-        <v>286700</v>
+        <v>231800</v>
       </c>
       <c r="I115" s="45">
         <v>0</v>
@@ -10512,7 +10574,7 @@
       </c>
       <c r="K115" s="44">
         <f t="shared" si="17"/>
-        <v>286700</v>
+        <v>231800</v>
       </c>
       <c r="L115" s="50"/>
       <c r="M115" s="42"/>
@@ -10535,36 +10597,34 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="U115" s="47" t="s">
-        <v>277</v>
-      </c>
+      <c r="U115" s="47"/>
       <c r="W115" s="18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="116" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B116" s="39">
         <v>112</v>
       </c>
       <c r="C116" s="50">
-        <v>45512</v>
+        <v>45506</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F116" s="42">
         <v>100</v>
       </c>
       <c r="G116" s="43">
-        <v>7340</v>
+        <v>2867</v>
       </c>
       <c r="H116" s="44">
         <f t="shared" si="16"/>
-        <v>734000</v>
+        <v>286700</v>
       </c>
       <c r="I116" s="45">
         <v>0</v>
@@ -10574,139 +10634,141 @@
       </c>
       <c r="K116" s="44">
         <f t="shared" si="17"/>
-        <v>734000</v>
-      </c>
-      <c r="L116" s="50">
-        <v>45532</v>
-      </c>
-      <c r="M116" s="42">
-        <v>100</v>
-      </c>
-      <c r="N116" s="43">
-        <v>8100</v>
-      </c>
+        <v>286700</v>
+      </c>
+      <c r="L116" s="50"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="43"/>
       <c r="O116" s="44">
         <f t="shared" si="18"/>
-        <v>810000</v>
-      </c>
-      <c r="P116" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q116" s="45">
-        <v>22752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P116" s="45"/>
+      <c r="Q116" s="45"/>
       <c r="R116" s="44">
         <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S116" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="T116" s="46" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="U116" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="W116" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B117" s="39">
+        <v>113</v>
+      </c>
+      <c r="C117" s="50">
+        <v>45512</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F117" s="42">
+        <v>100</v>
+      </c>
+      <c r="G117" s="43">
+        <v>7340</v>
+      </c>
+      <c r="H117" s="44">
+        <f t="shared" si="16"/>
+        <v>734000</v>
+      </c>
+      <c r="I117" s="45">
+        <v>0</v>
+      </c>
+      <c r="J117" s="45">
+        <v>0</v>
+      </c>
+      <c r="K117" s="44">
+        <f t="shared" si="17"/>
+        <v>734000</v>
+      </c>
+      <c r="L117" s="50">
+        <v>45532</v>
+      </c>
+      <c r="M117" s="42">
+        <v>100</v>
+      </c>
+      <c r="N117" s="43">
+        <v>8100</v>
+      </c>
+      <c r="O117" s="44">
+        <f t="shared" si="18"/>
+        <v>810000</v>
+      </c>
+      <c r="P117" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="45">
+        <v>22752</v>
+      </c>
+      <c r="R117" s="44">
+        <f t="shared" si="19"/>
         <v>787248</v>
       </c>
-      <c r="S116" s="44">
+      <c r="S117" s="44">
         <f t="shared" si="20"/>
         <v>53248</v>
       </c>
-      <c r="T116" s="46">
+      <c r="T117" s="46">
         <f t="shared" si="21"/>
         <v>7.2544959128065398E-2</v>
       </c>
-      <c r="U116" s="47" t="s">
+      <c r="U117" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="W116" s="18">
+      <c r="W117" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B117" s="39">
-        <v>113</v>
-      </c>
-      <c r="C117" s="50">
+    <row r="118" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B118" s="39">
+        <v>114</v>
+      </c>
+      <c r="C118" s="50">
         <v>45512</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="D118" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E117" s="41" t="s">
+      <c r="E118" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F117" s="42">
+      <c r="F118" s="42">
         <v>46</v>
       </c>
-      <c r="G117" s="43">
+      <c r="G118" s="43">
         <v>2098</v>
       </c>
-      <c r="H117" s="44">
+      <c r="H118" s="44">
         <f t="shared" si="16"/>
         <v>96508</v>
       </c>
-      <c r="I117" s="45">
-        <v>0</v>
-      </c>
-      <c r="J117" s="45">
-        <v>0</v>
-      </c>
-      <c r="K117" s="44">
+      <c r="I118" s="45">
+        <v>0</v>
+      </c>
+      <c r="J118" s="45">
+        <v>0</v>
+      </c>
+      <c r="K118" s="44">
         <f t="shared" si="17"/>
         <v>96508</v>
-      </c>
-      <c r="L117" s="50"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P117" s="45"/>
-      <c r="Q117" s="45"/>
-      <c r="R117" s="44">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S117" s="44" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T117" s="46" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U117" s="47"/>
-      <c r="W117" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B118" s="39">
-        <v>114</v>
-      </c>
-      <c r="C118" s="50">
-        <v>45512</v>
-      </c>
-      <c r="D118" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="E118" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="F118" s="42">
-        <v>100</v>
-      </c>
-      <c r="G118" s="43">
-        <v>768</v>
-      </c>
-      <c r="H118" s="44">
-        <f t="shared" si="16"/>
-        <v>76800</v>
-      </c>
-      <c r="I118" s="45">
-        <v>0</v>
-      </c>
-      <c r="J118" s="45">
-        <v>0</v>
-      </c>
-      <c r="K118" s="44">
-        <f t="shared" si="17"/>
-        <v>76800</v>
       </c>
       <c r="L118" s="50"/>
       <c r="M118" s="42"/>
@@ -10729,15 +10791,13 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="U118" s="47" t="s">
-        <v>269</v>
-      </c>
+      <c r="U118" s="47"/>
       <c r="W118" s="18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="119" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B119" s="39">
         <v>115</v>
       </c>
@@ -10745,20 +10805,20 @@
         <v>45512</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E119" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F119" s="42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G119" s="43">
-        <v>969</v>
+        <v>768</v>
       </c>
       <c r="H119" s="44">
         <f t="shared" si="16"/>
-        <v>193800</v>
+        <v>76800</v>
       </c>
       <c r="I119" s="45">
         <v>0</v>
@@ -10768,7 +10828,7 @@
       </c>
       <c r="K119" s="44">
         <f t="shared" si="17"/>
-        <v>193800</v>
+        <v>76800</v>
       </c>
       <c r="L119" s="50"/>
       <c r="M119" s="42"/>
@@ -10792,35 +10852,35 @@
         <v/>
       </c>
       <c r="U119" s="47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="W119" s="18" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="120" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B120" s="39">
         <v>116</v>
       </c>
       <c r="C120" s="50">
-        <v>45513</v>
+        <v>45512</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E120" s="41" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F120" s="42">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G120" s="43">
-        <v>4470</v>
+        <v>969</v>
       </c>
       <c r="H120" s="44">
         <f t="shared" si="16"/>
-        <v>447000</v>
+        <v>193800</v>
       </c>
       <c r="I120" s="45">
         <v>0</v>
@@ -10830,141 +10890,131 @@
       </c>
       <c r="K120" s="44">
         <f t="shared" si="17"/>
-        <v>447000</v>
-      </c>
-      <c r="L120" s="50">
-        <v>45523</v>
-      </c>
-      <c r="M120" s="42">
-        <v>100</v>
-      </c>
-      <c r="N120" s="43">
-        <v>4970</v>
-      </c>
+        <v>193800</v>
+      </c>
+      <c r="L120" s="50"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="43"/>
       <c r="O120" s="44">
         <f t="shared" si="18"/>
-        <v>497000</v>
-      </c>
-      <c r="P120" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="45">
-        <v>10157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P120" s="45"/>
+      <c r="Q120" s="45"/>
       <c r="R120" s="44">
         <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S120" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="T120" s="46" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="U120" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="W120" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B121" s="39">
+        <v>117</v>
+      </c>
+      <c r="C121" s="50">
+        <v>45513</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="E121" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="F121" s="42">
+        <v>100</v>
+      </c>
+      <c r="G121" s="43">
+        <v>4470</v>
+      </c>
+      <c r="H121" s="44">
+        <f t="shared" si="16"/>
+        <v>447000</v>
+      </c>
+      <c r="I121" s="45">
+        <v>0</v>
+      </c>
+      <c r="J121" s="45">
+        <v>0</v>
+      </c>
+      <c r="K121" s="44">
+        <f t="shared" si="17"/>
+        <v>447000</v>
+      </c>
+      <c r="L121" s="50">
+        <v>45523</v>
+      </c>
+      <c r="M121" s="42">
+        <v>100</v>
+      </c>
+      <c r="N121" s="43">
+        <v>4970</v>
+      </c>
+      <c r="O121" s="44">
+        <f t="shared" si="18"/>
+        <v>497000</v>
+      </c>
+      <c r="P121" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="45">
+        <v>10157</v>
+      </c>
+      <c r="R121" s="44">
+        <f t="shared" si="19"/>
         <v>486843</v>
       </c>
-      <c r="S120" s="44">
+      <c r="S121" s="44">
         <f t="shared" si="20"/>
         <v>39843</v>
       </c>
-      <c r="T120" s="46">
+      <c r="T121" s="46">
         <f t="shared" si="21"/>
         <v>8.9134228187919468E-2</v>
       </c>
-      <c r="U120" s="47" t="s">
+      <c r="U121" s="47" t="s">
         <v>274</v>
-      </c>
-      <c r="W120" s="18">
-        <f t="shared" si="15"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B121" s="39">
-        <v>117</v>
-      </c>
-      <c r="C121" s="50">
-        <v>45517</v>
-      </c>
-      <c r="D121" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E121" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="F121" s="42">
-        <v>100</v>
-      </c>
-      <c r="G121" s="43">
-        <v>3545</v>
-      </c>
-      <c r="H121" s="44">
-        <f t="shared" si="16"/>
-        <v>354500</v>
-      </c>
-      <c r="I121" s="45">
-        <v>0</v>
-      </c>
-      <c r="J121" s="45">
-        <v>0</v>
-      </c>
-      <c r="K121" s="44">
-        <f t="shared" si="17"/>
-        <v>354500</v>
-      </c>
-      <c r="L121" s="50">
-        <v>45532</v>
-      </c>
-      <c r="M121" s="42">
-        <v>100</v>
-      </c>
-      <c r="N121" s="43">
-        <v>3905</v>
-      </c>
-      <c r="O121" s="44">
-        <f t="shared" si="18"/>
-        <v>390500</v>
-      </c>
-      <c r="P121" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="45">
-        <v>0</v>
-      </c>
-      <c r="R121" s="44">
-        <f t="shared" si="19"/>
-        <v>390500</v>
-      </c>
-      <c r="S121" s="44">
-        <f t="shared" si="20"/>
-        <v>36000</v>
-      </c>
-      <c r="T121" s="46">
-        <f t="shared" si="21"/>
-        <v>0.10155148095909731</v>
-      </c>
-      <c r="U121" s="47" t="s">
-        <v>280</v>
       </c>
       <c r="W121" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="122" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B122" s="39">
         <v>118</v>
       </c>
       <c r="C122" s="50">
-        <v>45523</v>
+        <v>45517</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F122" s="42">
         <v>100</v>
       </c>
       <c r="G122" s="43">
-        <v>2249</v>
+        <v>3545</v>
       </c>
       <c r="H122" s="44">
         <f t="shared" si="16"/>
-        <v>224900</v>
+        <v>354500</v>
       </c>
       <c r="I122" s="45">
         <v>0</v>
@@ -10974,38 +11024,48 @@
       </c>
       <c r="K122" s="44">
         <f t="shared" si="17"/>
-        <v>224900</v>
-      </c>
-      <c r="L122" s="50"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="43"/>
+        <v>354500</v>
+      </c>
+      <c r="L122" s="50">
+        <v>45532</v>
+      </c>
+      <c r="M122" s="42">
+        <v>100</v>
+      </c>
+      <c r="N122" s="43">
+        <v>3905</v>
+      </c>
       <c r="O122" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P122" s="45"/>
-      <c r="Q122" s="45"/>
+        <v>390500</v>
+      </c>
+      <c r="P122" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="45">
+        <v>0</v>
+      </c>
       <c r="R122" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S122" s="44" t="str">
+        <v>390500</v>
+      </c>
+      <c r="S122" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T122" s="46" t="str">
+        <v>36000</v>
+      </c>
+      <c r="T122" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0.10155148095909731</v>
       </c>
       <c r="U122" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="W122" s="18" t="str">
+        <v>280</v>
+      </c>
+      <c r="W122" s="18">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B123" s="39">
         <v>119</v>
       </c>
@@ -11013,20 +11073,20 @@
         <v>45523</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="E123" s="41" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="F123" s="42">
         <v>100</v>
       </c>
       <c r="G123" s="43">
-        <v>2185.5</v>
+        <v>2249</v>
       </c>
       <c r="H123" s="44">
         <f t="shared" si="16"/>
-        <v>218550</v>
+        <v>224900</v>
       </c>
       <c r="I123" s="45">
         <v>0</v>
@@ -11036,116 +11096,106 @@
       </c>
       <c r="K123" s="44">
         <f t="shared" si="17"/>
-        <v>218550</v>
-      </c>
-      <c r="L123" s="50">
-        <v>45632</v>
-      </c>
-      <c r="M123" s="42">
-        <v>100</v>
-      </c>
-      <c r="N123" s="43">
-        <v>2266</v>
-      </c>
+        <v>224900</v>
+      </c>
+      <c r="L123" s="50"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="43"/>
       <c r="O123" s="44">
         <f t="shared" si="18"/>
-        <v>226600</v>
+        <v>0</v>
       </c>
       <c r="P123" s="45"/>
       <c r="Q123" s="45"/>
       <c r="R123" s="44">
         <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="T123" s="46" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="U123" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="W123" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B124" s="39">
+        <v>120</v>
+      </c>
+      <c r="C124" s="50">
+        <v>45523</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E124" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" s="42">
+        <v>100</v>
+      </c>
+      <c r="G124" s="43">
+        <v>2185.5</v>
+      </c>
+      <c r="H124" s="44">
+        <f t="shared" si="16"/>
+        <v>218550</v>
+      </c>
+      <c r="I124" s="45">
+        <v>0</v>
+      </c>
+      <c r="J124" s="45">
+        <v>0</v>
+      </c>
+      <c r="K124" s="44">
+        <f t="shared" si="17"/>
+        <v>218550</v>
+      </c>
+      <c r="L124" s="50">
+        <v>45632</v>
+      </c>
+      <c r="M124" s="42">
+        <v>100</v>
+      </c>
+      <c r="N124" s="43">
+        <v>2266</v>
+      </c>
+      <c r="O124" s="44">
+        <f t="shared" si="18"/>
         <v>226600</v>
       </c>
-      <c r="S123" s="44">
+      <c r="P124" s="45"/>
+      <c r="Q124" s="45"/>
+      <c r="R124" s="44">
+        <f t="shared" si="19"/>
+        <v>226600</v>
+      </c>
+      <c r="S124" s="44">
         <f t="shared" si="20"/>
         <v>8050</v>
       </c>
-      <c r="T123" s="46">
+      <c r="T124" s="46">
         <f t="shared" si="21"/>
         <v>3.6833676504232443E-2</v>
       </c>
-      <c r="U123" s="47" t="s">
+      <c r="U124" s="47" t="s">
         <v>289</v>
-      </c>
-      <c r="W123" s="18">
-        <f t="shared" si="15"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B124" s="39">
-        <v>120</v>
-      </c>
-      <c r="C124" s="50">
-        <v>45523</v>
-      </c>
-      <c r="D124" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E124" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F124" s="42">
-        <v>100</v>
-      </c>
-      <c r="G124" s="43">
-        <v>3350</v>
-      </c>
-      <c r="H124" s="44">
-        <f t="shared" si="16"/>
-        <v>335000</v>
-      </c>
-      <c r="I124" s="45">
-        <v>0</v>
-      </c>
-      <c r="J124" s="45">
-        <v>0</v>
-      </c>
-      <c r="K124" s="44">
-        <f t="shared" si="17"/>
-        <v>335000</v>
-      </c>
-      <c r="L124" s="50">
-        <v>45538</v>
-      </c>
-      <c r="M124" s="42">
-        <v>100</v>
-      </c>
-      <c r="N124" s="43">
-        <v>3560</v>
-      </c>
-      <c r="O124" s="44">
-        <f t="shared" si="18"/>
-        <v>356000</v>
-      </c>
-      <c r="P124" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="45">
-        <v>0</v>
-      </c>
-      <c r="R124" s="44">
-        <f t="shared" si="19"/>
-        <v>356000</v>
-      </c>
-      <c r="S124" s="44">
-        <f t="shared" si="20"/>
-        <v>21000</v>
-      </c>
-      <c r="T124" s="46">
-        <f t="shared" si="21"/>
-        <v>6.2686567164179099E-2</v>
-      </c>
-      <c r="U124" s="47" t="s">
-        <v>290</v>
       </c>
       <c r="W124" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="125" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B125" s="39">
         <v>121</v>
       </c>
@@ -11153,20 +11203,20 @@
         <v>45523</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E125" s="41" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="F125" s="42">
         <v>100</v>
       </c>
       <c r="G125" s="43">
-        <v>1199</v>
+        <v>3350</v>
       </c>
       <c r="H125" s="44">
         <f t="shared" si="16"/>
-        <v>119900</v>
+        <v>335000</v>
       </c>
       <c r="I125" s="45">
         <v>0</v>
@@ -11176,38 +11226,48 @@
       </c>
       <c r="K125" s="44">
         <f t="shared" si="17"/>
-        <v>119900</v>
-      </c>
-      <c r="L125" s="50"/>
-      <c r="M125" s="42"/>
-      <c r="N125" s="43"/>
+        <v>335000</v>
+      </c>
+      <c r="L125" s="50">
+        <v>45538</v>
+      </c>
+      <c r="M125" s="42">
+        <v>100</v>
+      </c>
+      <c r="N125" s="43">
+        <v>3560</v>
+      </c>
       <c r="O125" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="45"/>
-      <c r="Q125" s="45"/>
+        <v>356000</v>
+      </c>
+      <c r="P125" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="45">
+        <v>0</v>
+      </c>
       <c r="R125" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="44" t="str">
+        <v>356000</v>
+      </c>
+      <c r="S125" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T125" s="46" t="str">
+        <v>21000</v>
+      </c>
+      <c r="T125" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>6.2686567164179099E-2</v>
       </c>
       <c r="U125" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="W125" s="18" t="str">
+        <v>290</v>
+      </c>
+      <c r="W125" s="18">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="126" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B126" s="39">
         <v>122</v>
       </c>
@@ -11215,20 +11275,20 @@
         <v>45523</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="E126" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F126" s="42">
         <v>100</v>
       </c>
       <c r="G126" s="43">
-        <v>3818</v>
+        <v>1199</v>
       </c>
       <c r="H126" s="44">
         <f t="shared" si="16"/>
-        <v>381800</v>
+        <v>119900</v>
       </c>
       <c r="I126" s="45">
         <v>0</v>
@@ -11238,141 +11298,141 @@
       </c>
       <c r="K126" s="44">
         <f t="shared" si="17"/>
-        <v>381800</v>
-      </c>
-      <c r="L126" s="50">
-        <v>45569</v>
-      </c>
-      <c r="M126" s="42">
-        <v>100</v>
-      </c>
-      <c r="N126" s="43">
-        <v>4109</v>
-      </c>
+        <v>119900</v>
+      </c>
+      <c r="L126" s="50"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="43"/>
       <c r="O126" s="44">
         <f t="shared" si="18"/>
-        <v>410900</v>
-      </c>
-      <c r="P126" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="45">
-        <v>5911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P126" s="45"/>
+      <c r="Q126" s="45"/>
       <c r="R126" s="44">
         <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S126" s="44" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="T126" s="46" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="U126" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="W126" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B127" s="39">
+        <v>123</v>
+      </c>
+      <c r="C127" s="50">
+        <v>45523</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E127" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F127" s="42">
+        <v>100</v>
+      </c>
+      <c r="G127" s="43">
+        <v>3818</v>
+      </c>
+      <c r="H127" s="44">
+        <f t="shared" si="16"/>
+        <v>381800</v>
+      </c>
+      <c r="I127" s="45">
+        <v>0</v>
+      </c>
+      <c r="J127" s="45">
+        <v>0</v>
+      </c>
+      <c r="K127" s="44">
+        <f t="shared" si="17"/>
+        <v>381800</v>
+      </c>
+      <c r="L127" s="50">
+        <v>45569</v>
+      </c>
+      <c r="M127" s="42">
+        <v>100</v>
+      </c>
+      <c r="N127" s="43">
+        <v>4109</v>
+      </c>
+      <c r="O127" s="44">
+        <f t="shared" si="18"/>
+        <v>410900</v>
+      </c>
+      <c r="P127" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="45">
+        <v>5911</v>
+      </c>
+      <c r="R127" s="44">
+        <f t="shared" si="19"/>
         <v>404989</v>
       </c>
-      <c r="S126" s="44">
+      <c r="S127" s="44">
         <f t="shared" si="20"/>
         <v>23189</v>
       </c>
-      <c r="T126" s="46">
+      <c r="T127" s="46">
         <f t="shared" si="21"/>
         <v>6.073598742797276E-2</v>
       </c>
-      <c r="U126" s="47" t="s">
+      <c r="U127" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="W126" s="18">
+      <c r="W127" s="18">
         <f t="shared" si="15"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B127" s="39">
-        <v>123</v>
-      </c>
-      <c r="C127" s="50">
+    <row r="128" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B128" s="39">
+        <v>124</v>
+      </c>
+      <c r="C128" s="50">
         <v>45523</v>
       </c>
-      <c r="D127" s="40" t="s">
+      <c r="D128" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="41" t="s">
+      <c r="E128" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="F127" s="42">
+      <c r="F128" s="42">
         <v>100</v>
       </c>
-      <c r="G127" s="43">
+      <c r="G128" s="43">
         <v>3448</v>
       </c>
-      <c r="H127" s="44">
+      <c r="H128" s="44">
         <f t="shared" si="16"/>
         <v>344800</v>
       </c>
-      <c r="I127" s="45">
-        <v>0</v>
-      </c>
-      <c r="J127" s="45">
-        <v>0</v>
-      </c>
-      <c r="K127" s="44">
+      <c r="I128" s="45">
+        <v>0</v>
+      </c>
+      <c r="J128" s="45">
+        <v>0</v>
+      </c>
+      <c r="K128" s="44">
         <f t="shared" si="17"/>
         <v>344800</v>
-      </c>
-      <c r="L127" s="50"/>
-      <c r="M127" s="42"/>
-      <c r="N127" s="43"/>
-      <c r="O127" s="44">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P127" s="45"/>
-      <c r="Q127" s="45"/>
-      <c r="R127" s="44">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S127" s="44" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T127" s="46" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U127" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="W127" s="18" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B128" s="39">
-        <v>124</v>
-      </c>
-      <c r="C128" s="50">
-        <v>45537</v>
-      </c>
-      <c r="D128" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E128" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="F128" s="42">
-        <v>100</v>
-      </c>
-      <c r="G128" s="43">
-        <v>638</v>
-      </c>
-      <c r="H128" s="44">
-        <f t="shared" si="16"/>
-        <v>63800</v>
-      </c>
-      <c r="I128" s="45">
-        <v>0</v>
-      </c>
-      <c r="J128" s="45">
-        <v>0</v>
-      </c>
-      <c r="K128" s="44">
-        <f t="shared" si="17"/>
-        <v>63800</v>
       </c>
       <c r="L128" s="50"/>
       <c r="M128" s="42"/>
@@ -11395,7 +11455,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="U128" s="47"/>
+      <c r="U128" s="47" t="s">
+        <v>293</v>
+      </c>
       <c r="W128" s="18" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -11406,23 +11468,23 @@
         <v>125</v>
       </c>
       <c r="C129" s="50">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="E129" s="41" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="F129" s="42">
         <v>100</v>
       </c>
       <c r="G129" s="43">
-        <v>1950</v>
+        <v>638</v>
       </c>
       <c r="H129" s="44">
         <f t="shared" si="16"/>
-        <v>195000</v>
+        <v>63800</v>
       </c>
       <c r="I129" s="45">
         <v>0</v>
@@ -11432,33 +11494,39 @@
       </c>
       <c r="K129" s="44">
         <f t="shared" si="17"/>
-        <v>195000</v>
-      </c>
-      <c r="L129" s="50"/>
-      <c r="M129" s="42"/>
-      <c r="N129" s="43"/>
+        <v>63800</v>
+      </c>
+      <c r="L129" s="50">
+        <v>45645</v>
+      </c>
+      <c r="M129" s="42">
+        <v>100</v>
+      </c>
+      <c r="N129" s="43">
+        <v>693</v>
+      </c>
       <c r="O129" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>69300</v>
       </c>
       <c r="P129" s="45"/>
       <c r="Q129" s="45"/>
       <c r="R129" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S129" s="44" t="str">
+        <v>69300</v>
+      </c>
+      <c r="S129" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T129" s="46" t="str">
+        <v>5500</v>
+      </c>
+      <c r="T129" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="U129" s="47"/>
-      <c r="W129" s="18" t="str">
+      <c r="W129" s="18">
         <f t="shared" si="15"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.1">
@@ -11469,20 +11537,20 @@
         <v>45544</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="E130" s="41" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="F130" s="42">
         <v>100</v>
       </c>
       <c r="G130" s="43">
-        <v>4657</v>
+        <v>1950</v>
       </c>
       <c r="H130" s="44">
         <f t="shared" si="16"/>
-        <v>465700</v>
+        <v>195000</v>
       </c>
       <c r="I130" s="45">
         <v>0</v>
@@ -11492,34 +11560,34 @@
       </c>
       <c r="K130" s="44">
         <f t="shared" si="17"/>
-        <v>465700</v>
+        <v>195000</v>
       </c>
       <c r="L130" s="50">
-        <v>45630</v>
+        <v>45645</v>
       </c>
       <c r="M130" s="42">
         <v>100</v>
       </c>
       <c r="N130" s="43">
-        <v>5020</v>
+        <v>1958</v>
       </c>
       <c r="O130" s="44">
         <f t="shared" si="18"/>
-        <v>502000</v>
+        <v>195800</v>
       </c>
       <c r="P130" s="45"/>
       <c r="Q130" s="45"/>
       <c r="R130" s="44">
         <f t="shared" si="19"/>
-        <v>502000</v>
+        <v>195800</v>
       </c>
       <c r="S130" s="44">
         <f t="shared" si="20"/>
-        <v>36300</v>
+        <v>800</v>
       </c>
       <c r="T130" s="46">
         <f t="shared" si="21"/>
-        <v>7.7947176293751336E-2</v>
+        <v>4.1025641025641026E-3</v>
       </c>
       <c r="U130" s="47"/>
       <c r="W130" s="18">
@@ -11527,7 +11595,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="131" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B131" s="39">
         <v>127</v>
       </c>
@@ -11535,20 +11603,20 @@
         <v>45544</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E131" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F131" s="42">
         <v>100</v>
       </c>
       <c r="G131" s="43">
-        <v>1910</v>
+        <v>4657</v>
       </c>
       <c r="H131" s="44">
         <f t="shared" si="16"/>
-        <v>191000</v>
+        <v>465700</v>
       </c>
       <c r="I131" s="45">
         <v>0</v>
@@ -11558,34 +11626,34 @@
       </c>
       <c r="K131" s="44">
         <f t="shared" si="17"/>
-        <v>191000</v>
+        <v>465700</v>
       </c>
       <c r="L131" s="50">
-        <v>45608</v>
+        <v>45630</v>
       </c>
       <c r="M131" s="42">
         <v>100</v>
       </c>
       <c r="N131" s="43">
-        <v>2033.5</v>
+        <v>5020</v>
       </c>
       <c r="O131" s="44">
         <f t="shared" si="18"/>
-        <v>203350</v>
+        <v>502000</v>
       </c>
       <c r="P131" s="45"/>
       <c r="Q131" s="45"/>
       <c r="R131" s="44">
         <f t="shared" si="19"/>
-        <v>203350</v>
+        <v>502000</v>
       </c>
       <c r="S131" s="44">
         <f t="shared" si="20"/>
-        <v>12350</v>
+        <v>36300</v>
       </c>
       <c r="T131" s="46">
         <f t="shared" si="21"/>
-        <v>6.4659685863874342E-2</v>
+        <v>7.7947176293751336E-2</v>
       </c>
       <c r="U131" s="47"/>
       <c r="W131" s="18">
@@ -11593,134 +11661,134 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="132" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B132" s="39">
         <v>128</v>
       </c>
       <c r="C132" s="50">
-        <v>45546</v>
+        <v>45544</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E132" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F132" s="42">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G132" s="43">
-        <f>123.08*142.79</f>
-        <v>17574.593199999999</v>
+        <v>1910</v>
       </c>
       <c r="H132" s="44">
         <f t="shared" si="16"/>
-        <v>175745.932</v>
+        <v>191000</v>
       </c>
       <c r="I132" s="45">
-        <v>867</v>
+        <v>0</v>
       </c>
       <c r="J132" s="45">
         <v>0</v>
       </c>
       <c r="K132" s="44">
         <f t="shared" si="17"/>
-        <v>176612.932</v>
-      </c>
-      <c r="L132" s="50"/>
-      <c r="M132" s="42"/>
-      <c r="N132" s="43"/>
+        <v>191000</v>
+      </c>
+      <c r="L132" s="50">
+        <v>45608</v>
+      </c>
+      <c r="M132" s="42">
+        <v>100</v>
+      </c>
+      <c r="N132" s="43">
+        <v>2033.5</v>
+      </c>
       <c r="O132" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>203350</v>
       </c>
       <c r="P132" s="45"/>
       <c r="Q132" s="45"/>
       <c r="R132" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S132" s="44" t="str">
+        <v>203350</v>
+      </c>
+      <c r="S132" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T132" s="46" t="str">
+        <v>12350</v>
+      </c>
+      <c r="T132" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>6.4659685863874342E-2</v>
       </c>
       <c r="U132" s="47"/>
-      <c r="W132" s="18" t="str">
+      <c r="W132" s="18">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="133" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B133" s="39">
         <v>129</v>
       </c>
       <c r="C133" s="50">
-        <v>45552</v>
+        <v>45546</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E133" s="41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F133" s="42">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G133" s="43">
-        <v>1858.5</v>
+        <f>123.08*142.79</f>
+        <v>17574.593199999999</v>
       </c>
       <c r="H133" s="44">
         <f t="shared" si="16"/>
-        <v>185850</v>
+        <v>175745.932</v>
       </c>
       <c r="I133" s="45">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="J133" s="45">
         <v>0</v>
       </c>
       <c r="K133" s="44">
         <f t="shared" si="17"/>
-        <v>185850</v>
-      </c>
-      <c r="L133" s="50">
-        <v>45608</v>
-      </c>
-      <c r="M133" s="42">
-        <v>100</v>
-      </c>
-      <c r="N133" s="43">
-        <v>2033.5</v>
-      </c>
+        <v>176612.932</v>
+      </c>
+      <c r="L133" s="50"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="43"/>
       <c r="O133" s="44">
         <f t="shared" si="18"/>
-        <v>203350</v>
+        <v>0</v>
       </c>
       <c r="P133" s="45"/>
       <c r="Q133" s="45"/>
       <c r="R133" s="44">
         <f t="shared" si="19"/>
-        <v>203350</v>
-      </c>
-      <c r="S133" s="44">
+        <v>0</v>
+      </c>
+      <c r="S133" s="44" t="str">
         <f t="shared" si="20"/>
-        <v>17500</v>
-      </c>
-      <c r="T133" s="46">
+        <v/>
+      </c>
+      <c r="T133" s="46" t="str">
         <f t="shared" si="21"/>
-        <v>9.4161958568738227E-2</v>
+        <v/>
       </c>
       <c r="U133" s="47"/>
-      <c r="W133" s="18">
+      <c r="W133" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.1">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B134" s="39">
         <v>130</v>
       </c>
@@ -11728,20 +11796,20 @@
         <v>45552</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="E134" s="41" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="F134" s="42">
         <v>100</v>
       </c>
       <c r="G134" s="43">
-        <v>2705</v>
+        <v>1858.5</v>
       </c>
       <c r="H134" s="44">
         <f t="shared" si="16"/>
-        <v>270500</v>
+        <v>185850</v>
       </c>
       <c r="I134" s="45">
         <v>0</v>
@@ -11751,36 +11819,42 @@
       </c>
       <c r="K134" s="44">
         <f t="shared" si="17"/>
-        <v>270500</v>
-      </c>
-      <c r="L134" s="50"/>
-      <c r="M134" s="42"/>
-      <c r="N134" s="43"/>
+        <v>185850</v>
+      </c>
+      <c r="L134" s="50">
+        <v>45608</v>
+      </c>
+      <c r="M134" s="42">
+        <v>100</v>
+      </c>
+      <c r="N134" s="43">
+        <v>2033.5</v>
+      </c>
       <c r="O134" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>203350</v>
       </c>
       <c r="P134" s="45"/>
       <c r="Q134" s="45"/>
       <c r="R134" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S134" s="44" t="str">
+        <v>203350</v>
+      </c>
+      <c r="S134" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T134" s="46" t="str">
+        <v>17500</v>
+      </c>
+      <c r="T134" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>9.4161958568738227E-2</v>
       </c>
       <c r="U134" s="47"/>
-      <c r="W134" s="18" t="str">
+      <c r="W134" s="18">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="135" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B135" s="39">
         <v>131</v>
       </c>
@@ -11788,20 +11862,20 @@
         <v>45552</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E135" s="41" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F135" s="42">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G135" s="43">
-        <v>2157</v>
+        <v>2705</v>
       </c>
       <c r="H135" s="44">
         <f t="shared" si="16"/>
-        <v>198444</v>
+        <v>270500</v>
       </c>
       <c r="I135" s="45">
         <v>0</v>
@@ -11811,7 +11885,7 @@
       </c>
       <c r="K135" s="44">
         <f t="shared" si="17"/>
-        <v>198444</v>
+        <v>270500</v>
       </c>
       <c r="L135" s="50"/>
       <c r="M135" s="42"/>
@@ -11836,11 +11910,11 @@
       </c>
       <c r="U135" s="47"/>
       <c r="W135" s="18" t="str">
-        <f t="shared" ref="W135:W198" si="29">IF(L135&lt;&gt;"",YEAR(L135),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B136" s="39">
         <v>132</v>
       </c>
@@ -11848,20 +11922,20 @@
         <v>45552</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="E136" s="41" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="F136" s="42">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G136" s="43">
-        <v>1846</v>
+        <v>2157</v>
       </c>
       <c r="H136" s="44">
         <f t="shared" si="16"/>
-        <v>184600</v>
+        <v>198444</v>
       </c>
       <c r="I136" s="45">
         <v>0</v>
@@ -11871,7 +11945,7 @@
       </c>
       <c r="K136" s="44">
         <f t="shared" si="17"/>
-        <v>184600</v>
+        <v>198444</v>
       </c>
       <c r="L136" s="50"/>
       <c r="M136" s="42"/>
@@ -11896,11 +11970,11 @@
       </c>
       <c r="U136" s="47"/>
       <c r="W136" s="18" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" ref="W136:W199" si="29">IF(L136&lt;&gt;"",YEAR(L136),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B137" s="39">
         <v>133</v>
       </c>
@@ -11908,20 +11982,20 @@
         <v>45552</v>
       </c>
       <c r="D137" s="40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E137" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F137" s="42">
         <v>100</v>
       </c>
       <c r="G137" s="43">
-        <v>3425</v>
+        <v>1846</v>
       </c>
       <c r="H137" s="44">
         <f t="shared" si="16"/>
-        <v>342500</v>
+        <v>184600</v>
       </c>
       <c r="I137" s="45">
         <v>0</v>
@@ -11931,7 +12005,7 @@
       </c>
       <c r="K137" s="44">
         <f t="shared" si="17"/>
-        <v>342500</v>
+        <v>184600</v>
       </c>
       <c r="L137" s="50"/>
       <c r="M137" s="42"/>
@@ -11960,7 +12034,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="138" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B138" s="39">
         <v>134</v>
       </c>
@@ -11968,20 +12042,20 @@
         <v>45552</v>
       </c>
       <c r="D138" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E138" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F138" s="42">
         <v>100</v>
       </c>
       <c r="G138" s="43">
-        <v>4753</v>
+        <v>3425</v>
       </c>
       <c r="H138" s="44">
         <f t="shared" si="16"/>
-        <v>475300</v>
+        <v>342500</v>
       </c>
       <c r="I138" s="45">
         <v>0</v>
@@ -11991,63 +12065,57 @@
       </c>
       <c r="K138" s="44">
         <f t="shared" si="17"/>
-        <v>475300</v>
-      </c>
-      <c r="L138" s="50">
-        <v>45604</v>
-      </c>
-      <c r="M138" s="42">
-        <v>100</v>
-      </c>
-      <c r="N138" s="43">
-        <v>5289</v>
-      </c>
+        <v>342500</v>
+      </c>
+      <c r="L138" s="50"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="43"/>
       <c r="O138" s="44">
         <f t="shared" si="18"/>
-        <v>528900</v>
+        <v>0</v>
       </c>
       <c r="P138" s="45"/>
       <c r="Q138" s="45"/>
       <c r="R138" s="44">
         <f t="shared" si="19"/>
-        <v>528900</v>
-      </c>
-      <c r="S138" s="44">
+        <v>0</v>
+      </c>
+      <c r="S138" s="44" t="str">
         <f t="shared" si="20"/>
-        <v>53600</v>
-      </c>
-      <c r="T138" s="46">
+        <v/>
+      </c>
+      <c r="T138" s="46" t="str">
         <f t="shared" si="21"/>
-        <v>0.11277088154849568</v>
+        <v/>
       </c>
       <c r="U138" s="47"/>
-      <c r="W138" s="18">
+      <c r="W138" s="18" t="str">
         <f t="shared" si="29"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.1">
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B139" s="39">
         <v>135</v>
       </c>
       <c r="C139" s="50">
-        <v>45553</v>
+        <v>45552</v>
       </c>
       <c r="D139" s="40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E139" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F139" s="42">
         <v>100</v>
       </c>
       <c r="G139" s="43">
-        <v>646</v>
+        <v>4753</v>
       </c>
       <c r="H139" s="44">
         <f t="shared" si="16"/>
-        <v>64600</v>
+        <v>475300</v>
       </c>
       <c r="I139" s="45">
         <v>0</v>
@@ -12057,57 +12125,63 @@
       </c>
       <c r="K139" s="44">
         <f t="shared" si="17"/>
-        <v>64600</v>
-      </c>
-      <c r="L139" s="50"/>
-      <c r="M139" s="42"/>
-      <c r="N139" s="43"/>
+        <v>475300</v>
+      </c>
+      <c r="L139" s="50">
+        <v>45604</v>
+      </c>
+      <c r="M139" s="42">
+        <v>100</v>
+      </c>
+      <c r="N139" s="43">
+        <v>5289</v>
+      </c>
       <c r="O139" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>528900</v>
       </c>
       <c r="P139" s="45"/>
       <c r="Q139" s="45"/>
       <c r="R139" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S139" s="44" t="str">
+        <v>528900</v>
+      </c>
+      <c r="S139" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T139" s="46" t="str">
+        <v>53600</v>
+      </c>
+      <c r="T139" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0.11277088154849568</v>
       </c>
       <c r="U139" s="47"/>
-      <c r="W139" s="18" t="str">
+      <c r="W139" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="140" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B140" s="39">
         <v>136</v>
       </c>
       <c r="C140" s="50">
-        <v>45580</v>
+        <v>45553</v>
       </c>
       <c r="D140" s="40" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E140" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F140" s="42">
         <v>100</v>
       </c>
       <c r="G140" s="43">
-        <v>3811</v>
+        <v>646</v>
       </c>
       <c r="H140" s="44">
         <f t="shared" si="16"/>
-        <v>381100</v>
+        <v>64600</v>
       </c>
       <c r="I140" s="45">
         <v>0</v>
@@ -12117,7 +12191,7 @@
       </c>
       <c r="K140" s="44">
         <f t="shared" si="17"/>
-        <v>381100</v>
+        <v>64600</v>
       </c>
       <c r="L140" s="50"/>
       <c r="M140" s="42"/>
@@ -12146,28 +12220,28 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="141" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B141" s="39">
         <v>137</v>
       </c>
       <c r="C141" s="50">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="D141" s="40" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="E141" s="41" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="F141" s="42">
         <v>100</v>
       </c>
       <c r="G141" s="43">
-        <v>2207</v>
+        <v>3811</v>
       </c>
       <c r="H141" s="44">
         <f t="shared" si="16"/>
-        <v>220700</v>
+        <v>381100</v>
       </c>
       <c r="I141" s="45">
         <v>0</v>
@@ -12177,63 +12251,57 @@
       </c>
       <c r="K141" s="44">
         <f t="shared" si="17"/>
-        <v>220700</v>
-      </c>
-      <c r="L141" s="50">
-        <v>45632</v>
-      </c>
-      <c r="M141" s="42">
-        <v>100</v>
-      </c>
-      <c r="N141" s="43">
-        <v>2266</v>
-      </c>
+        <v>381100</v>
+      </c>
+      <c r="L141" s="50"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="43"/>
       <c r="O141" s="44">
         <f t="shared" si="18"/>
-        <v>226600</v>
+        <v>0</v>
       </c>
       <c r="P141" s="45"/>
       <c r="Q141" s="45"/>
       <c r="R141" s="44">
         <f t="shared" si="19"/>
-        <v>226600</v>
-      </c>
-      <c r="S141" s="44">
+        <v>0</v>
+      </c>
+      <c r="S141" s="44" t="str">
         <f t="shared" si="20"/>
-        <v>5900</v>
-      </c>
-      <c r="T141" s="46">
+        <v/>
+      </c>
+      <c r="T141" s="46" t="str">
         <f t="shared" si="21"/>
-        <v>2.6733121884911646E-2</v>
+        <v/>
       </c>
       <c r="U141" s="47"/>
-      <c r="W141" s="18">
+      <c r="W141" s="18" t="str">
         <f t="shared" si="29"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.1">
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B142" s="39">
         <v>138</v>
       </c>
       <c r="C142" s="50">
-        <v>45582</v>
+        <v>45581</v>
       </c>
       <c r="D142" s="40" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="E142" s="41" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="F142" s="42">
         <v>100</v>
       </c>
       <c r="G142" s="43">
-        <v>2626</v>
+        <v>2207</v>
       </c>
       <c r="H142" s="44">
         <f t="shared" si="16"/>
-        <v>262600</v>
+        <v>220700</v>
       </c>
       <c r="I142" s="45">
         <v>0</v>
@@ -12243,57 +12311,63 @@
       </c>
       <c r="K142" s="44">
         <f t="shared" si="17"/>
-        <v>262600</v>
-      </c>
-      <c r="L142" s="50"/>
-      <c r="M142" s="42"/>
-      <c r="N142" s="43"/>
+        <v>220700</v>
+      </c>
+      <c r="L142" s="50">
+        <v>45632</v>
+      </c>
+      <c r="M142" s="42">
+        <v>100</v>
+      </c>
+      <c r="N142" s="43">
+        <v>2266</v>
+      </c>
       <c r="O142" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="P142" s="45"/>
       <c r="Q142" s="45"/>
       <c r="R142" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S142" s="44" t="str">
+        <v>226600</v>
+      </c>
+      <c r="S142" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T142" s="46" t="str">
+        <v>5900</v>
+      </c>
+      <c r="T142" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>2.6733121884911646E-2</v>
       </c>
       <c r="U142" s="47"/>
-      <c r="W142" s="18" t="str">
+      <c r="W142" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="143" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B143" s="39">
         <v>139</v>
       </c>
       <c r="C143" s="50">
-        <v>45586</v>
+        <v>45582</v>
       </c>
       <c r="D143" s="40" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="E143" s="41" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F143" s="42">
         <v>100</v>
       </c>
       <c r="G143" s="43">
-        <v>2105</v>
+        <v>2626</v>
       </c>
       <c r="H143" s="44">
         <f t="shared" si="16"/>
-        <v>210500</v>
+        <v>262600</v>
       </c>
       <c r="I143" s="45">
         <v>0</v>
@@ -12303,42 +12377,36 @@
       </c>
       <c r="K143" s="44">
         <f t="shared" si="17"/>
-        <v>210500</v>
-      </c>
-      <c r="L143" s="50">
-        <v>45632</v>
-      </c>
-      <c r="M143" s="42">
-        <v>100</v>
-      </c>
-      <c r="N143" s="43">
-        <v>2266</v>
-      </c>
+        <v>262600</v>
+      </c>
+      <c r="L143" s="50"/>
+      <c r="M143" s="42"/>
+      <c r="N143" s="43"/>
       <c r="O143" s="44">
         <f t="shared" si="18"/>
-        <v>226600</v>
+        <v>0</v>
       </c>
       <c r="P143" s="45"/>
       <c r="Q143" s="45"/>
       <c r="R143" s="44">
         <f t="shared" si="19"/>
-        <v>226600</v>
-      </c>
-      <c r="S143" s="44">
+        <v>0</v>
+      </c>
+      <c r="S143" s="44" t="str">
         <f t="shared" si="20"/>
-        <v>16100</v>
-      </c>
-      <c r="T143" s="46">
+        <v/>
+      </c>
+      <c r="T143" s="46" t="str">
         <f t="shared" si="21"/>
-        <v>7.6484560570071261E-2</v>
+        <v/>
       </c>
       <c r="U143" s="47"/>
-      <c r="W143" s="18">
+      <c r="W143" s="18" t="str">
         <f t="shared" si="29"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.1">
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B144" s="39">
         <v>140</v>
       </c>
@@ -12346,20 +12414,20 @@
         <v>45586</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="E144" s="41" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="F144" s="42">
         <v>100</v>
       </c>
       <c r="G144" s="43">
-        <v>1999</v>
+        <v>2105</v>
       </c>
       <c r="H144" s="44">
         <f t="shared" si="16"/>
-        <v>199900</v>
+        <v>210500</v>
       </c>
       <c r="I144" s="45">
         <v>0</v>
@@ -12369,34 +12437,34 @@
       </c>
       <c r="K144" s="44">
         <f t="shared" si="17"/>
-        <v>199900</v>
+        <v>210500</v>
       </c>
       <c r="L144" s="50">
-        <v>45608</v>
+        <v>45632</v>
       </c>
       <c r="M144" s="42">
         <v>100</v>
       </c>
       <c r="N144" s="43">
-        <v>2033.5</v>
+        <v>2266</v>
       </c>
       <c r="O144" s="44">
         <f t="shared" si="18"/>
-        <v>203350</v>
+        <v>226600</v>
       </c>
       <c r="P144" s="45"/>
       <c r="Q144" s="45"/>
       <c r="R144" s="44">
         <f t="shared" si="19"/>
-        <v>203350</v>
+        <v>226600</v>
       </c>
       <c r="S144" s="44">
         <f t="shared" si="20"/>
-        <v>3450</v>
+        <v>16100</v>
       </c>
       <c r="T144" s="46">
         <f t="shared" si="21"/>
-        <v>1.7258629314657329E-2</v>
+        <v>7.6484560570071261E-2</v>
       </c>
       <c r="U144" s="47"/>
       <c r="W144" s="18">
@@ -12404,28 +12472,28 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="145" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B145" s="39">
         <v>141</v>
       </c>
       <c r="C145" s="50">
-        <v>45590</v>
+        <v>45586</v>
       </c>
       <c r="D145" s="40" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E145" s="41" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F145" s="42">
         <v>100</v>
       </c>
       <c r="G145" s="43">
-        <v>3690</v>
+        <v>1999</v>
       </c>
       <c r="H145" s="44">
         <f t="shared" si="16"/>
-        <v>369000</v>
+        <v>199900</v>
       </c>
       <c r="I145" s="45">
         <v>0</v>
@@ -12435,33 +12503,39 @@
       </c>
       <c r="K145" s="44">
         <f t="shared" si="17"/>
-        <v>369000</v>
-      </c>
-      <c r="L145" s="50"/>
-      <c r="M145" s="42"/>
-      <c r="N145" s="43"/>
+        <v>199900</v>
+      </c>
+      <c r="L145" s="50">
+        <v>45608</v>
+      </c>
+      <c r="M145" s="42">
+        <v>100</v>
+      </c>
+      <c r="N145" s="43">
+        <v>2033.5</v>
+      </c>
       <c r="O145" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>203350</v>
       </c>
       <c r="P145" s="45"/>
       <c r="Q145" s="45"/>
       <c r="R145" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S145" s="44" t="str">
+        <v>203350</v>
+      </c>
+      <c r="S145" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T145" s="46" t="str">
+        <v>3450</v>
+      </c>
+      <c r="T145" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>1.7258629314657329E-2</v>
       </c>
       <c r="U145" s="47"/>
-      <c r="W145" s="18" t="str">
+      <c r="W145" s="18">
         <f t="shared" si="29"/>
-        <v/>
+        <v>2024</v>
       </c>
     </row>
     <row r="146" spans="2:23" x14ac:dyDescent="0.1">
@@ -12469,23 +12543,23 @@
         <v>142</v>
       </c>
       <c r="C146" s="50">
-        <v>45596</v>
+        <v>45590</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F146" s="42">
         <v>100</v>
       </c>
       <c r="G146" s="43">
-        <v>4510</v>
+        <v>3690</v>
       </c>
       <c r="H146" s="44">
         <f t="shared" si="16"/>
-        <v>451000</v>
+        <v>369000</v>
       </c>
       <c r="I146" s="45">
         <v>0</v>
@@ -12495,63 +12569,73 @@
       </c>
       <c r="K146" s="44">
         <f t="shared" si="17"/>
-        <v>451000</v>
-      </c>
-      <c r="L146" s="50"/>
-      <c r="M146" s="42"/>
-      <c r="N146" s="43"/>
+        <v>369000</v>
+      </c>
+      <c r="L146" s="50">
+        <v>45645</v>
+      </c>
+      <c r="M146" s="42">
+        <v>100</v>
+      </c>
+      <c r="N146" s="43">
+        <v>3690</v>
+      </c>
       <c r="O146" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>369000</v>
       </c>
       <c r="P146" s="45"/>
       <c r="Q146" s="45"/>
       <c r="R146" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S146" s="44" t="str">
+        <v>369000</v>
+      </c>
+      <c r="S146" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T146" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="T146" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="U146" s="47"/>
-      <c r="W146" s="18" t="str">
+      <c r="W146" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="147" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B147" s="39">
         <v>143</v>
       </c>
       <c r="C147" s="50">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="D147" s="40" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="E147" s="41" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="F147" s="42">
         <v>100</v>
       </c>
       <c r="G147" s="43">
-        <v>1071</v>
+        <v>4510</v>
       </c>
       <c r="H147" s="44">
         <f t="shared" si="16"/>
-        <v>107100</v>
-      </c>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
+        <v>451000</v>
+      </c>
+      <c r="I147" s="45">
+        <v>0</v>
+      </c>
+      <c r="J147" s="45">
+        <v>0</v>
+      </c>
       <c r="K147" s="44">
         <f t="shared" si="17"/>
-        <v>107100</v>
+        <v>451000</v>
       </c>
       <c r="L147" s="50"/>
       <c r="M147" s="42"/>
@@ -12580,34 +12664,34 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="148" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B148" s="39">
         <v>144</v>
       </c>
       <c r="C148" s="50">
-        <v>45601</v>
+        <v>45597</v>
       </c>
       <c r="D148" s="40" t="s">
-        <v>317</v>
+        <v>242</v>
       </c>
       <c r="E148" s="41" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="F148" s="42">
         <v>100</v>
       </c>
       <c r="G148" s="43">
-        <v>2721</v>
+        <v>1071</v>
       </c>
       <c r="H148" s="44">
         <f t="shared" si="16"/>
-        <v>272100</v>
+        <v>107100</v>
       </c>
       <c r="I148" s="45"/>
       <c r="J148" s="45"/>
       <c r="K148" s="44">
         <f t="shared" si="17"/>
-        <v>272100</v>
+        <v>107100</v>
       </c>
       <c r="L148" s="50"/>
       <c r="M148" s="42"/>
@@ -12636,7 +12720,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="149" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B149" s="39">
         <v>145</v>
       </c>
@@ -12644,26 +12728,26 @@
         <v>45601</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="E149" s="41" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="F149" s="42">
         <v>100</v>
       </c>
       <c r="G149" s="43">
-        <v>2981.5</v>
+        <v>2721</v>
       </c>
       <c r="H149" s="44">
         <f t="shared" si="16"/>
-        <v>298150</v>
+        <v>272100</v>
       </c>
       <c r="I149" s="45"/>
       <c r="J149" s="45"/>
       <c r="K149" s="44">
         <f t="shared" si="17"/>
-        <v>298150</v>
+        <v>272100</v>
       </c>
       <c r="L149" s="50"/>
       <c r="M149" s="42"/>
@@ -12692,7 +12776,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="150" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B150" s="39">
         <v>146</v>
       </c>
@@ -12700,26 +12784,26 @@
         <v>45601</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="E150" s="41" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="F150" s="42">
         <v>100</v>
       </c>
       <c r="G150" s="43">
-        <v>4440</v>
+        <v>2981.5</v>
       </c>
       <c r="H150" s="44">
         <f t="shared" si="16"/>
-        <v>444000</v>
+        <v>298150</v>
       </c>
       <c r="I150" s="45"/>
       <c r="J150" s="45"/>
       <c r="K150" s="44">
         <f t="shared" si="17"/>
-        <v>444000</v>
+        <v>298150</v>
       </c>
       <c r="L150" s="50"/>
       <c r="M150" s="42"/>
@@ -12748,34 +12832,34 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="151" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B151" s="39">
         <v>147</v>
       </c>
       <c r="C151" s="50">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="D151" s="40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E151" s="41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F151" s="42">
         <v>100</v>
       </c>
       <c r="G151" s="43">
-        <v>1431</v>
+        <v>4440</v>
       </c>
       <c r="H151" s="44">
         <f t="shared" si="16"/>
-        <v>143100</v>
+        <v>444000</v>
       </c>
       <c r="I151" s="45"/>
       <c r="J151" s="45"/>
       <c r="K151" s="44">
         <f t="shared" si="17"/>
-        <v>143100</v>
+        <v>444000</v>
       </c>
       <c r="L151" s="50"/>
       <c r="M151" s="42"/>
@@ -12804,90 +12888,96 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="152" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B152" s="39">
         <v>148</v>
       </c>
       <c r="C152" s="50">
-        <v>45614</v>
+        <v>45602</v>
       </c>
       <c r="D152" s="40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E152" s="41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F152" s="42">
         <v>100</v>
       </c>
       <c r="G152" s="43">
-        <v>3060</v>
+        <v>1431</v>
       </c>
       <c r="H152" s="44">
         <f t="shared" si="16"/>
-        <v>306000</v>
+        <v>143100</v>
       </c>
       <c r="I152" s="45"/>
       <c r="J152" s="45"/>
       <c r="K152" s="44">
         <f t="shared" si="17"/>
-        <v>306000</v>
-      </c>
-      <c r="L152" s="50"/>
-      <c r="M152" s="42"/>
-      <c r="N152" s="43"/>
+        <v>143100</v>
+      </c>
+      <c r="L152" s="50">
+        <v>45637</v>
+      </c>
+      <c r="M152" s="42">
+        <v>100</v>
+      </c>
+      <c r="N152" s="43">
+        <v>1555</v>
+      </c>
       <c r="O152" s="44">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>155500</v>
       </c>
       <c r="P152" s="45"/>
       <c r="Q152" s="45"/>
       <c r="R152" s="44">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S152" s="44" t="str">
+        <v>155500</v>
+      </c>
+      <c r="S152" s="44">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="T152" s="46" t="str">
+        <v>12400</v>
+      </c>
+      <c r="T152" s="46">
         <f t="shared" si="21"/>
-        <v/>
+        <v>8.6652690426275325E-2</v>
       </c>
       <c r="U152" s="47"/>
-      <c r="W152" s="18" t="str">
+      <c r="W152" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="153" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B153" s="39">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C153" s="50">
         <v>45614</v>
       </c>
       <c r="D153" s="40" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="E153" s="41" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="F153" s="42">
         <v>100</v>
       </c>
       <c r="G153" s="43">
-        <v>3285</v>
+        <v>3060</v>
       </c>
       <c r="H153" s="44">
         <f t="shared" si="16"/>
-        <v>328500</v>
+        <v>306000</v>
       </c>
       <c r="I153" s="45"/>
       <c r="J153" s="45"/>
       <c r="K153" s="44">
         <f t="shared" si="17"/>
-        <v>328500</v>
+        <v>306000</v>
       </c>
       <c r="L153" s="50"/>
       <c r="M153" s="42"/>
@@ -12916,34 +13006,34 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="154" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B154" s="39">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C154" s="50">
         <v>45614</v>
       </c>
       <c r="D154" s="40" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="E154" s="41" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="F154" s="42">
         <v>100</v>
       </c>
       <c r="G154" s="43">
-        <v>2685</v>
+        <v>3285</v>
       </c>
       <c r="H154" s="44">
         <f t="shared" si="16"/>
-        <v>268500</v>
+        <v>328500</v>
       </c>
       <c r="I154" s="45"/>
       <c r="J154" s="45"/>
       <c r="K154" s="44">
         <f t="shared" si="17"/>
-        <v>268500</v>
+        <v>328500</v>
       </c>
       <c r="L154" s="50"/>
       <c r="M154" s="42"/>
@@ -12972,34 +13062,34 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="155" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B155" s="39">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C155" s="50">
         <v>45614</v>
       </c>
       <c r="D155" s="40" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="E155" s="41" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F155" s="42">
         <v>100</v>
       </c>
       <c r="G155" s="43">
-        <v>1970</v>
+        <v>2685</v>
       </c>
       <c r="H155" s="44">
         <f t="shared" si="16"/>
-        <v>197000</v>
+        <v>268500</v>
       </c>
       <c r="I155" s="45"/>
       <c r="J155" s="45"/>
       <c r="K155" s="44">
         <f t="shared" si="17"/>
-        <v>197000</v>
+        <v>268500</v>
       </c>
       <c r="L155" s="50"/>
       <c r="M155" s="42"/>
@@ -13028,12 +13118,12 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="156" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B156" s="39">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C156" s="50">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="D156" s="40" t="s">
         <v>97</v>
@@ -13045,17 +13135,17 @@
         <v>100</v>
       </c>
       <c r="G156" s="43">
-        <v>2014</v>
+        <v>1970</v>
       </c>
       <c r="H156" s="44">
         <f t="shared" si="16"/>
-        <v>201400</v>
+        <v>197000</v>
       </c>
       <c r="I156" s="45"/>
       <c r="J156" s="45"/>
       <c r="K156" s="44">
         <f t="shared" si="17"/>
-        <v>201400</v>
+        <v>197000</v>
       </c>
       <c r="L156" s="50"/>
       <c r="M156" s="42"/>
@@ -13084,34 +13174,34 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="157" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B157" s="39">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C157" s="50">
         <v>45621</v>
       </c>
       <c r="D157" s="40" t="s">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="E157" s="41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F157" s="42">
         <v>100</v>
       </c>
       <c r="G157" s="43">
-        <v>2646.5</v>
+        <v>2014</v>
       </c>
       <c r="H157" s="44">
         <f t="shared" si="16"/>
-        <v>264650</v>
+        <v>201400</v>
       </c>
       <c r="I157" s="45"/>
       <c r="J157" s="45"/>
       <c r="K157" s="44">
         <f t="shared" si="17"/>
-        <v>264650</v>
+        <v>201400</v>
       </c>
       <c r="L157" s="50"/>
       <c r="M157" s="42"/>
@@ -13140,34 +13230,34 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="158" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B158" s="39">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C158" s="50">
         <v>45621</v>
       </c>
       <c r="D158" s="40" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E158" s="41" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F158" s="42">
         <v>100</v>
       </c>
       <c r="G158" s="43">
-        <v>4310</v>
+        <v>2646.5</v>
       </c>
       <c r="H158" s="44">
         <f t="shared" si="16"/>
-        <v>431000</v>
+        <v>264650</v>
       </c>
       <c r="I158" s="45"/>
       <c r="J158" s="45"/>
       <c r="K158" s="44">
         <f t="shared" si="17"/>
-        <v>431000</v>
+        <v>264650</v>
       </c>
       <c r="L158" s="50"/>
       <c r="M158" s="42"/>
@@ -13196,34 +13286,34 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="159" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B159" s="39">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" s="50">
         <v>45621</v>
       </c>
       <c r="D159" s="40" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E159" s="41" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F159" s="42">
         <v>100</v>
       </c>
       <c r="G159" s="43">
-        <v>3532</v>
+        <v>4310</v>
       </c>
       <c r="H159" s="44">
         <f t="shared" si="16"/>
-        <v>353200</v>
+        <v>431000</v>
       </c>
       <c r="I159" s="45"/>
       <c r="J159" s="45"/>
       <c r="K159" s="44">
         <f t="shared" si="17"/>
-        <v>353200</v>
+        <v>431000</v>
       </c>
       <c r="L159" s="50"/>
       <c r="M159" s="42"/>
@@ -13252,34 +13342,34 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="160" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B160" s="39">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C160" s="50">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="D160" s="40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E160" s="41" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F160" s="42">
         <v>100</v>
       </c>
       <c r="G160" s="43">
-        <v>3081</v>
+        <v>3532</v>
       </c>
       <c r="H160" s="44">
         <f t="shared" si="16"/>
-        <v>308100</v>
+        <v>353200</v>
       </c>
       <c r="I160" s="45"/>
       <c r="J160" s="45"/>
       <c r="K160" s="44">
         <f t="shared" si="17"/>
-        <v>308100</v>
+        <v>353200</v>
       </c>
       <c r="L160" s="50"/>
       <c r="M160" s="42"/>
@@ -13308,34 +13398,34 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="161" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B161" s="39">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C161" s="50">
-        <v>45628</v>
+        <v>45622</v>
       </c>
       <c r="D161" s="40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E161" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F161" s="42">
         <v>100</v>
       </c>
       <c r="G161" s="43">
-        <v>3341</v>
+        <v>3081</v>
       </c>
       <c r="H161" s="44">
         <f t="shared" si="16"/>
-        <v>334100</v>
+        <v>308100</v>
       </c>
       <c r="I161" s="45"/>
       <c r="J161" s="45"/>
       <c r="K161" s="44">
         <f t="shared" si="17"/>
-        <v>334100</v>
+        <v>308100</v>
       </c>
       <c r="L161" s="50"/>
       <c r="M161" s="42"/>
@@ -13364,34 +13454,34 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="162" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B162" s="39">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C162" s="50">
         <v>45628</v>
       </c>
       <c r="D162" s="40" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E162" s="41" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F162" s="42">
         <v>100</v>
       </c>
       <c r="G162" s="43">
-        <v>2525</v>
+        <v>3341</v>
       </c>
       <c r="H162" s="44">
         <f t="shared" si="16"/>
-        <v>252500</v>
+        <v>334100</v>
       </c>
       <c r="I162" s="45"/>
       <c r="J162" s="45"/>
       <c r="K162" s="44">
         <f t="shared" si="17"/>
-        <v>252500</v>
+        <v>334100</v>
       </c>
       <c r="L162" s="50"/>
       <c r="M162" s="42"/>
@@ -13420,22 +13510,34 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B163" s="39"/>
-      <c r="C163" s="50"/>
-      <c r="D163" s="40"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="42"/>
-      <c r="G163" s="43"/>
+    <row r="163" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B163" s="39">
+        <v>159</v>
+      </c>
+      <c r="C163" s="50">
+        <v>45628</v>
+      </c>
+      <c r="D163" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E163" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" s="42">
+        <v>100</v>
+      </c>
+      <c r="G163" s="43">
+        <v>2525</v>
+      </c>
       <c r="H163" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>252500</v>
       </c>
       <c r="I163" s="45"/>
       <c r="J163" s="45"/>
       <c r="K163" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>252500</v>
       </c>
       <c r="L163" s="50"/>
       <c r="M163" s="42"/>
@@ -13464,22 +13566,34 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B164" s="39"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="40"/>
-      <c r="E164" s="41"/>
-      <c r="F164" s="42"/>
-      <c r="G164" s="43"/>
+    <row r="164" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B164" s="39">
+        <v>160</v>
+      </c>
+      <c r="C164" s="50">
+        <v>45635</v>
+      </c>
+      <c r="D164" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E164" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F164" s="42">
+        <v>100</v>
+      </c>
+      <c r="G164" s="43">
+        <v>1831</v>
+      </c>
       <c r="H164" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>183100</v>
       </c>
       <c r="I164" s="45"/>
       <c r="J164" s="45"/>
       <c r="K164" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>183100</v>
       </c>
       <c r="L164" s="50"/>
       <c r="M164" s="42"/>
@@ -13508,22 +13622,34 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B165" s="39"/>
-      <c r="C165" s="50"/>
-      <c r="D165" s="40"/>
-      <c r="E165" s="41"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="43"/>
+    <row r="165" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B165" s="39">
+        <v>161</v>
+      </c>
+      <c r="C165" s="50">
+        <v>45635</v>
+      </c>
+      <c r="D165" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E165" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="F165" s="42">
+        <v>100</v>
+      </c>
+      <c r="G165" s="43">
+        <v>2266</v>
+      </c>
       <c r="H165" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="I165" s="45"/>
       <c r="J165" s="45"/>
       <c r="K165" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>226600</v>
       </c>
       <c r="L165" s="50"/>
       <c r="M165" s="42"/>
@@ -13552,22 +13678,34 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B166" s="39"/>
-      <c r="C166" s="50"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="41"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="43"/>
+    <row r="166" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B166" s="39">
+        <v>162</v>
+      </c>
+      <c r="C166" s="50">
+        <v>45635</v>
+      </c>
+      <c r="D166" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E166" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" s="42">
+        <v>100</v>
+      </c>
+      <c r="G166" s="43">
+        <v>1438.5</v>
+      </c>
       <c r="H166" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>143850</v>
       </c>
       <c r="I166" s="45"/>
       <c r="J166" s="45"/>
       <c r="K166" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>143850</v>
       </c>
       <c r="L166" s="50"/>
       <c r="M166" s="42"/>
@@ -13596,22 +13734,34 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B167" s="39"/>
-      <c r="C167" s="50"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="41"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="43"/>
+    <row r="167" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B167" s="39">
+        <v>163</v>
+      </c>
+      <c r="C167" s="50">
+        <v>45642</v>
+      </c>
+      <c r="D167" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E167" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" s="42">
+        <v>100</v>
+      </c>
+      <c r="G167" s="43">
+        <v>926</v>
+      </c>
       <c r="H167" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>92600</v>
       </c>
       <c r="I167" s="45"/>
       <c r="J167" s="45"/>
       <c r="K167" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>92600</v>
       </c>
       <c r="L167" s="50"/>
       <c r="M167" s="42"/>
@@ -13640,22 +13790,34 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B168" s="39"/>
-      <c r="C168" s="50"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="42"/>
-      <c r="G168" s="43"/>
+    <row r="168" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B168" s="39">
+        <v>164</v>
+      </c>
+      <c r="C168" s="50">
+        <v>45642</v>
+      </c>
+      <c r="D168" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" s="42">
+        <v>100</v>
+      </c>
+      <c r="G168" s="43">
+        <v>2314</v>
+      </c>
       <c r="H168" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>231400</v>
       </c>
       <c r="I168" s="45"/>
       <c r="J168" s="45"/>
       <c r="K168" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>231400</v>
       </c>
       <c r="L168" s="50"/>
       <c r="M168" s="42"/>
@@ -13684,22 +13846,34 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B169" s="39"/>
-      <c r="C169" s="50"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="41"/>
-      <c r="F169" s="42"/>
-      <c r="G169" s="43"/>
+    <row r="169" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B169" s="39">
+        <v>165</v>
+      </c>
+      <c r="C169" s="50">
+        <v>45642</v>
+      </c>
+      <c r="D169" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E169" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" s="42">
+        <v>100</v>
+      </c>
+      <c r="G169" s="43">
+        <v>2433</v>
+      </c>
       <c r="H169" s="44">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>243300</v>
       </c>
       <c r="I169" s="45"/>
       <c r="J169" s="45"/>
       <c r="K169" s="44">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>243300</v>
       </c>
       <c r="L169" s="50"/>
       <c r="M169" s="42"/>
@@ -13729,85 +13903,115 @@
       </c>
     </row>
     <row r="170" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B170" s="39"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="43"/>
+      <c r="B170" s="39">
+        <v>166</v>
+      </c>
+      <c r="C170" s="50">
+        <v>45642</v>
+      </c>
+      <c r="D170" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E170" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" s="42">
+        <v>100</v>
+      </c>
+      <c r="G170" s="43">
+        <v>7157</v>
+      </c>
       <c r="H170" s="44">
-        <f t="shared" ref="H170:H233" si="30">F170*G170</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>715700</v>
       </c>
       <c r="I170" s="45"/>
       <c r="J170" s="45"/>
       <c r="K170" s="44">
-        <f t="shared" ref="K170:K233" si="31">H170+I170+J170</f>
-        <v>0</v>
-      </c>
-      <c r="L170" s="50"/>
-      <c r="M170" s="42"/>
-      <c r="N170" s="43"/>
+        <f t="shared" si="17"/>
+        <v>715700</v>
+      </c>
+      <c r="L170" s="50">
+        <v>45645</v>
+      </c>
+      <c r="M170" s="42">
+        <v>100</v>
+      </c>
+      <c r="N170" s="43">
+        <v>7155</v>
+      </c>
       <c r="O170" s="44">
-        <f t="shared" ref="O170:O233" si="32">M170*N170</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>715500</v>
       </c>
       <c r="P170" s="45"/>
       <c r="Q170" s="45"/>
       <c r="R170" s="44">
-        <f t="shared" ref="R170:R233" si="33">O170-P170-Q170</f>
-        <v>0</v>
-      </c>
-      <c r="S170" s="44" t="str">
-        <f t="shared" ref="S170:S233" si="34">IF(L170&lt;&gt;"",R170-K170,"")</f>
-        <v/>
-      </c>
-      <c r="T170" s="46" t="str">
-        <f t="shared" ref="T170:T233" si="35">IF(S170&lt;&gt;"",S170/K170,"")</f>
-        <v/>
+        <f t="shared" si="19"/>
+        <v>715500</v>
+      </c>
+      <c r="S170" s="44">
+        <f t="shared" si="20"/>
+        <v>-200</v>
+      </c>
+      <c r="T170" s="46">
+        <f t="shared" si="21"/>
+        <v>-2.7944669554282519E-4</v>
       </c>
       <c r="U170" s="47"/>
-      <c r="W170" s="18" t="str">
+      <c r="W170" s="18">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B171" s="39"/>
-      <c r="C171" s="50"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="41"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="43"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="171" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B171" s="39">
+        <v>167</v>
+      </c>
+      <c r="C171" s="50">
+        <v>45642</v>
+      </c>
+      <c r="D171" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="E171" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" s="42">
+        <v>100</v>
+      </c>
+      <c r="G171" s="43">
+        <v>2482</v>
+      </c>
       <c r="H171" s="44">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" ref="H171:H234" si="30">F171*G171</f>
+        <v>248200</v>
       </c>
       <c r="I171" s="45"/>
       <c r="J171" s="45"/>
       <c r="K171" s="44">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" ref="K171:K234" si="31">H171+I171+J171</f>
+        <v>248200</v>
       </c>
       <c r="L171" s="50"/>
       <c r="M171" s="42"/>
       <c r="N171" s="43"/>
       <c r="O171" s="44">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="O171:O234" si="32">M171*N171</f>
         <v>0</v>
       </c>
       <c r="P171" s="45"/>
       <c r="Q171" s="45"/>
       <c r="R171" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="R171:R234" si="33">O171-P171-Q171</f>
         <v>0</v>
       </c>
       <c r="S171" s="44" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="S171:S234" si="34">IF(L171&lt;&gt;"",R171-K171,"")</f>
         <v/>
       </c>
       <c r="T171" s="46" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="T171:T234" si="35">IF(S171&lt;&gt;"",S171/K171,"")</f>
         <v/>
       </c>
       <c r="U171" s="47"/>
@@ -13816,22 +14020,34 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B172" s="39"/>
-      <c r="C172" s="50"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="41"/>
-      <c r="F172" s="42"/>
-      <c r="G172" s="43"/>
+    <row r="172" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B172" s="39">
+        <v>168</v>
+      </c>
+      <c r="C172" s="50">
+        <v>45643</v>
+      </c>
+      <c r="D172" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E172" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F172" s="42">
+        <v>100</v>
+      </c>
+      <c r="G172" s="43">
+        <v>234.9</v>
+      </c>
       <c r="H172" s="44">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>23490</v>
       </c>
       <c r="I172" s="45"/>
       <c r="J172" s="45"/>
       <c r="K172" s="44">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>23490</v>
       </c>
       <c r="L172" s="50"/>
       <c r="M172" s="42"/>
@@ -13860,22 +14076,34 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.1">
-      <c r="B173" s="39"/>
-      <c r="C173" s="50"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="41"/>
-      <c r="F173" s="42"/>
-      <c r="G173" s="43"/>
+    <row r="173" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
+      <c r="B173" s="39">
+        <v>169</v>
+      </c>
+      <c r="C173" s="50">
+        <v>45643</v>
+      </c>
+      <c r="D173" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E173" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="F173" s="42">
+        <v>100</v>
+      </c>
+      <c r="G173" s="43">
+        <v>1780</v>
+      </c>
       <c r="H173" s="44">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>178000</v>
       </c>
       <c r="I173" s="45"/>
       <c r="J173" s="45"/>
       <c r="K173" s="44">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>178000</v>
       </c>
       <c r="L173" s="50"/>
       <c r="M173" s="42"/>
@@ -13904,7 +14132,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="174" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B174" s="39"/>
       <c r="C174" s="50"/>
       <c r="D174" s="40"/>
@@ -13948,7 +14176,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="175" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B175" s="39"/>
       <c r="C175" s="50"/>
       <c r="D175" s="40"/>
@@ -13992,7 +14220,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="176" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B176" s="39"/>
       <c r="C176" s="50"/>
       <c r="D176" s="40"/>
@@ -14036,7 +14264,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="177" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B177" s="39"/>
       <c r="C177" s="50"/>
       <c r="D177" s="40"/>
@@ -14080,7 +14308,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="178" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B178" s="39"/>
       <c r="C178" s="50"/>
       <c r="D178" s="40"/>
@@ -14124,7 +14352,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="179" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B179" s="39"/>
       <c r="C179" s="50"/>
       <c r="D179" s="40"/>
@@ -14168,7 +14396,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="180" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B180" s="39"/>
       <c r="C180" s="50"/>
       <c r="D180" s="40"/>
@@ -14212,7 +14440,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="181" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B181" s="39"/>
       <c r="C181" s="50"/>
       <c r="D181" s="40"/>
@@ -14256,7 +14484,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="182" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B182" s="39"/>
       <c r="C182" s="50"/>
       <c r="D182" s="40"/>
@@ -14300,7 +14528,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="183" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B183" s="39"/>
       <c r="C183" s="50"/>
       <c r="D183" s="40"/>
@@ -14344,7 +14572,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="184" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B184" s="39"/>
       <c r="C184" s="50"/>
       <c r="D184" s="40"/>
@@ -14388,7 +14616,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="185" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B185" s="39"/>
       <c r="C185" s="50"/>
       <c r="D185" s="40"/>
@@ -14432,7 +14660,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="186" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B186" s="39"/>
       <c r="C186" s="50"/>
       <c r="D186" s="40"/>
@@ -14476,7 +14704,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="187" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B187" s="39"/>
       <c r="C187" s="50"/>
       <c r="D187" s="40"/>
@@ -14520,7 +14748,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="188" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B188" s="39"/>
       <c r="C188" s="50"/>
       <c r="D188" s="40"/>
@@ -14564,7 +14792,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="189" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B189" s="39"/>
       <c r="C189" s="50"/>
       <c r="D189" s="40"/>
@@ -14608,7 +14836,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="190" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B190" s="39"/>
       <c r="C190" s="50"/>
       <c r="D190" s="40"/>
@@ -14652,7 +14880,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="191" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B191" s="39"/>
       <c r="C191" s="50"/>
       <c r="D191" s="40"/>
@@ -14696,7 +14924,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="192" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B192" s="39"/>
       <c r="C192" s="50"/>
       <c r="D192" s="40"/>
@@ -14740,7 +14968,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="193" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B193" s="39"/>
       <c r="C193" s="50"/>
       <c r="D193" s="40"/>
@@ -14784,7 +15012,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="194" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B194" s="39"/>
       <c r="C194" s="50"/>
       <c r="D194" s="40"/>
@@ -14828,7 +15056,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="195" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B195" s="39"/>
       <c r="C195" s="50"/>
       <c r="D195" s="40"/>
@@ -14872,7 +15100,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="196" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B196" s="39"/>
       <c r="C196" s="50"/>
       <c r="D196" s="40"/>
@@ -14916,7 +15144,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="197" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B197" s="39"/>
       <c r="C197" s="50"/>
       <c r="D197" s="40"/>
@@ -14960,7 +15188,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="198" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B198" s="39"/>
       <c r="C198" s="50"/>
       <c r="D198" s="40"/>
@@ -15004,7 +15232,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="199" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B199" s="39"/>
       <c r="C199" s="50"/>
       <c r="D199" s="40"/>
@@ -15044,11 +15272,11 @@
       </c>
       <c r="U199" s="47"/>
       <c r="W199" s="18" t="str">
-        <f t="shared" ref="W199:W262" si="36">IF(L199&lt;&gt;"",YEAR(L199),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B200" s="39"/>
       <c r="C200" s="50"/>
       <c r="D200" s="40"/>
@@ -15088,11 +15316,11 @@
       </c>
       <c r="U200" s="47"/>
       <c r="W200" s="18" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" ref="W200:W263" si="36">IF(L200&lt;&gt;"",YEAR(L200),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B201" s="39"/>
       <c r="C201" s="50"/>
       <c r="D201" s="40"/>
@@ -15136,7 +15364,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="202" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B202" s="39"/>
       <c r="C202" s="50"/>
       <c r="D202" s="40"/>
@@ -15180,7 +15408,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="203" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B203" s="39"/>
       <c r="C203" s="50"/>
       <c r="D203" s="40"/>
@@ -15224,7 +15452,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="204" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B204" s="39"/>
       <c r="C204" s="50"/>
       <c r="D204" s="40"/>
@@ -15268,7 +15496,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="205" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B205" s="39"/>
       <c r="C205" s="50"/>
       <c r="D205" s="40"/>
@@ -15312,7 +15540,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="206" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B206" s="39"/>
       <c r="C206" s="50"/>
       <c r="D206" s="40"/>
@@ -15356,7 +15584,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="207" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B207" s="39"/>
       <c r="C207" s="50"/>
       <c r="D207" s="40"/>
@@ -15400,7 +15628,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="208" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B208" s="39"/>
       <c r="C208" s="50"/>
       <c r="D208" s="40"/>
@@ -15444,7 +15672,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="209" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B209" s="39"/>
       <c r="C209" s="50"/>
       <c r="D209" s="40"/>
@@ -15488,7 +15716,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="210" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B210" s="39"/>
       <c r="C210" s="50"/>
       <c r="D210" s="40"/>
@@ -15532,7 +15760,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="211" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B211" s="39"/>
       <c r="C211" s="50"/>
       <c r="D211" s="40"/>
@@ -15576,7 +15804,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="212" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B212" s="39"/>
       <c r="C212" s="50"/>
       <c r="D212" s="40"/>
@@ -15620,7 +15848,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="213" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B213" s="39"/>
       <c r="C213" s="50"/>
       <c r="D213" s="40"/>
@@ -15664,7 +15892,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="214" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B214" s="39"/>
       <c r="C214" s="50"/>
       <c r="D214" s="40"/>
@@ -15708,7 +15936,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="215" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B215" s="39"/>
       <c r="C215" s="50"/>
       <c r="D215" s="40"/>
@@ -15752,7 +15980,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="216" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B216" s="39"/>
       <c r="C216" s="50"/>
       <c r="D216" s="40"/>
@@ -15796,7 +16024,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="217" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B217" s="39"/>
       <c r="C217" s="50"/>
       <c r="D217" s="40"/>
@@ -15840,7 +16068,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="218" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B218" s="39"/>
       <c r="C218" s="50"/>
       <c r="D218" s="40"/>
@@ -15884,7 +16112,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="219" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B219" s="39"/>
       <c r="C219" s="50"/>
       <c r="D219" s="40"/>
@@ -15928,7 +16156,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="220" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B220" s="39"/>
       <c r="C220" s="50"/>
       <c r="D220" s="40"/>
@@ -15972,7 +16200,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="221" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B221" s="39"/>
       <c r="C221" s="50"/>
       <c r="D221" s="40"/>
@@ -16016,7 +16244,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="222" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B222" s="39"/>
       <c r="C222" s="50"/>
       <c r="D222" s="40"/>
@@ -16060,7 +16288,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="223" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B223" s="39"/>
       <c r="C223" s="50"/>
       <c r="D223" s="40"/>
@@ -16104,7 +16332,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="224" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B224" s="39"/>
       <c r="C224" s="50"/>
       <c r="D224" s="40"/>
@@ -16148,7 +16376,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="225" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B225" s="39"/>
       <c r="C225" s="50"/>
       <c r="D225" s="40"/>
@@ -16192,7 +16420,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="226" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B226" s="39"/>
       <c r="C226" s="50"/>
       <c r="D226" s="40"/>
@@ -16236,7 +16464,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="227" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B227" s="39"/>
       <c r="C227" s="50"/>
       <c r="D227" s="40"/>
@@ -16280,7 +16508,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="228" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B228" s="39"/>
       <c r="C228" s="50"/>
       <c r="D228" s="40"/>
@@ -16324,7 +16552,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="229" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B229" s="39"/>
       <c r="C229" s="50"/>
       <c r="D229" s="40"/>
@@ -16368,7 +16596,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="230" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B230" s="39"/>
       <c r="C230" s="50"/>
       <c r="D230" s="40"/>
@@ -16412,7 +16640,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="231" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B231" s="39"/>
       <c r="C231" s="50"/>
       <c r="D231" s="40"/>
@@ -16456,7 +16684,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="232" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B232" s="39"/>
       <c r="C232" s="50"/>
       <c r="D232" s="40"/>
@@ -16500,7 +16728,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="233" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B233" s="39"/>
       <c r="C233" s="50"/>
       <c r="D233" s="40"/>
@@ -16544,7 +16772,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="234" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B234" s="39"/>
       <c r="C234" s="50"/>
       <c r="D234" s="40"/>
@@ -16552,34 +16780,34 @@
       <c r="F234" s="42"/>
       <c r="G234" s="43"/>
       <c r="H234" s="44">
-        <f t="shared" ref="H234:H297" si="37">F234*G234</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I234" s="45"/>
       <c r="J234" s="45"/>
       <c r="K234" s="44">
-        <f t="shared" ref="K234:K297" si="38">H234+I234+J234</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L234" s="50"/>
       <c r="M234" s="42"/>
       <c r="N234" s="43"/>
       <c r="O234" s="44">
-        <f t="shared" ref="O234:O297" si="39">M234*N234</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P234" s="45"/>
       <c r="Q234" s="45"/>
       <c r="R234" s="44">
-        <f t="shared" ref="R234:R297" si="40">O234-P234-Q234</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S234" s="44" t="str">
-        <f t="shared" ref="S234:S297" si="41">IF(L234&lt;&gt;"",R234-K234,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T234" s="46" t="str">
-        <f t="shared" ref="T234:T297" si="42">IF(S234&lt;&gt;"",S234/K234,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U234" s="47"/>
@@ -16588,7 +16816,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="235" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B235" s="39"/>
       <c r="C235" s="50"/>
       <c r="D235" s="40"/>
@@ -16596,34 +16824,34 @@
       <c r="F235" s="42"/>
       <c r="G235" s="43"/>
       <c r="H235" s="44">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="H235:H298" si="37">F235*G235</f>
         <v>0</v>
       </c>
       <c r="I235" s="45"/>
       <c r="J235" s="45"/>
       <c r="K235" s="44">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="K235:K298" si="38">H235+I235+J235</f>
         <v>0</v>
       </c>
       <c r="L235" s="50"/>
       <c r="M235" s="42"/>
       <c r="N235" s="43"/>
       <c r="O235" s="44">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="O235:O298" si="39">M235*N235</f>
         <v>0</v>
       </c>
       <c r="P235" s="45"/>
       <c r="Q235" s="45"/>
       <c r="R235" s="44">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="R235:R298" si="40">O235-P235-Q235</f>
         <v>0</v>
       </c>
       <c r="S235" s="44" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="S235:S298" si="41">IF(L235&lt;&gt;"",R235-K235,"")</f>
         <v/>
       </c>
       <c r="T235" s="46" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="T235:T298" si="42">IF(S235&lt;&gt;"",S235/K235,"")</f>
         <v/>
       </c>
       <c r="U235" s="47"/>
@@ -16632,7 +16860,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="236" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B236" s="39"/>
       <c r="C236" s="50"/>
       <c r="D236" s="40"/>
@@ -16676,7 +16904,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="237" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B237" s="39"/>
       <c r="C237" s="50"/>
       <c r="D237" s="40"/>
@@ -16720,7 +16948,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="238" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B238" s="39"/>
       <c r="C238" s="50"/>
       <c r="D238" s="40"/>
@@ -16764,7 +16992,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="239" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B239" s="39"/>
       <c r="C239" s="50"/>
       <c r="D239" s="40"/>
@@ -16808,7 +17036,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="240" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B240" s="39"/>
       <c r="C240" s="50"/>
       <c r="D240" s="40"/>
@@ -16852,7 +17080,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="241" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B241" s="39"/>
       <c r="C241" s="50"/>
       <c r="D241" s="40"/>
@@ -16896,7 +17124,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="242" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B242" s="39"/>
       <c r="C242" s="50"/>
       <c r="D242" s="40"/>
@@ -16940,7 +17168,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="243" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B243" s="39"/>
       <c r="C243" s="50"/>
       <c r="D243" s="40"/>
@@ -16984,7 +17212,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="244" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B244" s="39"/>
       <c r="C244" s="50"/>
       <c r="D244" s="40"/>
@@ -17028,7 +17256,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="245" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B245" s="39"/>
       <c r="C245" s="50"/>
       <c r="D245" s="40"/>
@@ -17072,7 +17300,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="246" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B246" s="39"/>
       <c r="C246" s="50"/>
       <c r="D246" s="40"/>
@@ -17116,7 +17344,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="247" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B247" s="39"/>
       <c r="C247" s="50"/>
       <c r="D247" s="40"/>
@@ -17160,7 +17388,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="248" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B248" s="39"/>
       <c r="C248" s="50"/>
       <c r="D248" s="40"/>
@@ -17204,7 +17432,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="249" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B249" s="39"/>
       <c r="C249" s="50"/>
       <c r="D249" s="40"/>
@@ -17248,7 +17476,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="250" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B250" s="39"/>
       <c r="C250" s="50"/>
       <c r="D250" s="40"/>
@@ -17292,7 +17520,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="251" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B251" s="39"/>
       <c r="C251" s="50"/>
       <c r="D251" s="40"/>
@@ -17336,7 +17564,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="252" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B252" s="39"/>
       <c r="C252" s="50"/>
       <c r="D252" s="40"/>
@@ -17380,7 +17608,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="253" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B253" s="39"/>
       <c r="C253" s="50"/>
       <c r="D253" s="40"/>
@@ -17424,7 +17652,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="254" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B254" s="39"/>
       <c r="C254" s="50"/>
       <c r="D254" s="40"/>
@@ -17468,7 +17696,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="255" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B255" s="39"/>
       <c r="C255" s="50"/>
       <c r="D255" s="40"/>
@@ -17512,7 +17740,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="256" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B256" s="39"/>
       <c r="C256" s="50"/>
       <c r="D256" s="40"/>
@@ -17556,7 +17784,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="257" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B257" s="39"/>
       <c r="C257" s="50"/>
       <c r="D257" s="40"/>
@@ -17600,7 +17828,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="258" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B258" s="39"/>
       <c r="C258" s="50"/>
       <c r="D258" s="40"/>
@@ -17644,7 +17872,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="259" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B259" s="39"/>
       <c r="C259" s="50"/>
       <c r="D259" s="40"/>
@@ -17688,7 +17916,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="260" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B260" s="39"/>
       <c r="C260" s="50"/>
       <c r="D260" s="40"/>
@@ -17732,7 +17960,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="261" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B261" s="39"/>
       <c r="C261" s="50"/>
       <c r="D261" s="40"/>
@@ -17776,7 +18004,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="262" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B262" s="39"/>
       <c r="C262" s="50"/>
       <c r="D262" s="40"/>
@@ -17820,7 +18048,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="263" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B263" s="39"/>
       <c r="C263" s="50"/>
       <c r="D263" s="40"/>
@@ -17860,11 +18088,11 @@
       </c>
       <c r="U263" s="47"/>
       <c r="W263" s="18" t="str">
-        <f t="shared" ref="W263:W326" si="43">IF(L263&lt;&gt;"",YEAR(L263),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B264" s="39"/>
       <c r="C264" s="50"/>
       <c r="D264" s="40"/>
@@ -17904,11 +18132,11 @@
       </c>
       <c r="U264" s="47"/>
       <c r="W264" s="18" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" ref="W264:W327" si="43">IF(L264&lt;&gt;"",YEAR(L264),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B265" s="39"/>
       <c r="C265" s="50"/>
       <c r="D265" s="40"/>
@@ -17952,7 +18180,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="266" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B266" s="39"/>
       <c r="C266" s="50"/>
       <c r="D266" s="40"/>
@@ -17996,7 +18224,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="267" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B267" s="39"/>
       <c r="C267" s="50"/>
       <c r="D267" s="40"/>
@@ -18040,7 +18268,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="268" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B268" s="39"/>
       <c r="C268" s="50"/>
       <c r="D268" s="40"/>
@@ -18084,7 +18312,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="269" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B269" s="39"/>
       <c r="C269" s="50"/>
       <c r="D269" s="40"/>
@@ -18128,7 +18356,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="270" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B270" s="39"/>
       <c r="C270" s="50"/>
       <c r="D270" s="40"/>
@@ -18172,7 +18400,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="271" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B271" s="39"/>
       <c r="C271" s="50"/>
       <c r="D271" s="40"/>
@@ -18216,7 +18444,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="272" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B272" s="39"/>
       <c r="C272" s="50"/>
       <c r="D272" s="40"/>
@@ -18260,7 +18488,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="273" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B273" s="39"/>
       <c r="C273" s="50"/>
       <c r="D273" s="40"/>
@@ -18304,7 +18532,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="274" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B274" s="39"/>
       <c r="C274" s="50"/>
       <c r="D274" s="40"/>
@@ -18348,7 +18576,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="275" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B275" s="39"/>
       <c r="C275" s="50"/>
       <c r="D275" s="40"/>
@@ -18392,7 +18620,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="276" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B276" s="39"/>
       <c r="C276" s="50"/>
       <c r="D276" s="40"/>
@@ -18436,7 +18664,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="277" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B277" s="39"/>
       <c r="C277" s="50"/>
       <c r="D277" s="40"/>
@@ -18480,7 +18708,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="278" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B278" s="39"/>
       <c r="C278" s="50"/>
       <c r="D278" s="40"/>
@@ -18524,7 +18752,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="279" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B279" s="39"/>
       <c r="C279" s="50"/>
       <c r="D279" s="40"/>
@@ -18568,7 +18796,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="280" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B280" s="39"/>
       <c r="C280" s="50"/>
       <c r="D280" s="40"/>
@@ -18612,7 +18840,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="281" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B281" s="39"/>
       <c r="C281" s="50"/>
       <c r="D281" s="40"/>
@@ -18656,7 +18884,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="282" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B282" s="39"/>
       <c r="C282" s="50"/>
       <c r="D282" s="40"/>
@@ -18700,7 +18928,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="283" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B283" s="39"/>
       <c r="C283" s="50"/>
       <c r="D283" s="40"/>
@@ -18744,7 +18972,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="284" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B284" s="39"/>
       <c r="C284" s="50"/>
       <c r="D284" s="40"/>
@@ -18788,7 +19016,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="285" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B285" s="39"/>
       <c r="C285" s="50"/>
       <c r="D285" s="40"/>
@@ -18832,7 +19060,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="286" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B286" s="39"/>
       <c r="C286" s="50"/>
       <c r="D286" s="40"/>
@@ -18876,7 +19104,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="287" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B287" s="39"/>
       <c r="C287" s="50"/>
       <c r="D287" s="40"/>
@@ -18920,7 +19148,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="288" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B288" s="39"/>
       <c r="C288" s="50"/>
       <c r="D288" s="40"/>
@@ -18964,7 +19192,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="289" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B289" s="39"/>
       <c r="C289" s="50"/>
       <c r="D289" s="40"/>
@@ -19008,7 +19236,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="290" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B290" s="39"/>
       <c r="C290" s="50"/>
       <c r="D290" s="40"/>
@@ -19052,7 +19280,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="291" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B291" s="39"/>
       <c r="C291" s="50"/>
       <c r="D291" s="40"/>
@@ -19096,7 +19324,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="292" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B292" s="39"/>
       <c r="C292" s="50"/>
       <c r="D292" s="40"/>
@@ -19140,7 +19368,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="293" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B293" s="39"/>
       <c r="C293" s="50"/>
       <c r="D293" s="40"/>
@@ -19184,7 +19412,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="294" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B294" s="39"/>
       <c r="C294" s="50"/>
       <c r="D294" s="40"/>
@@ -19228,7 +19456,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="295" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B295" s="39"/>
       <c r="C295" s="50"/>
       <c r="D295" s="40"/>
@@ -19272,7 +19500,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="296" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B296" s="39"/>
       <c r="C296" s="50"/>
       <c r="D296" s="40"/>
@@ -19316,7 +19544,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="297" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B297" s="39"/>
       <c r="C297" s="50"/>
       <c r="D297" s="40"/>
@@ -19360,7 +19588,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="298" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B298" s="39"/>
       <c r="C298" s="50"/>
       <c r="D298" s="40"/>
@@ -19368,34 +19596,34 @@
       <c r="F298" s="42"/>
       <c r="G298" s="43"/>
       <c r="H298" s="44">
-        <f t="shared" ref="H298:H361" si="44">F298*G298</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I298" s="45"/>
       <c r="J298" s="45"/>
       <c r="K298" s="44">
-        <f t="shared" ref="K298:K361" si="45">H298+I298+J298</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L298" s="50"/>
       <c r="M298" s="42"/>
       <c r="N298" s="43"/>
       <c r="O298" s="44">
-        <f t="shared" ref="O298:O361" si="46">M298*N298</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P298" s="45"/>
       <c r="Q298" s="45"/>
       <c r="R298" s="44">
-        <f t="shared" ref="R298:R361" si="47">O298-P298-Q298</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S298" s="44" t="str">
-        <f t="shared" ref="S298:S361" si="48">IF(L298&lt;&gt;"",R298-K298,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="T298" s="46" t="str">
-        <f t="shared" ref="T298:T361" si="49">IF(S298&lt;&gt;"",S298/K298,"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="U298" s="47"/>
@@ -19404,7 +19632,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="299" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B299" s="39"/>
       <c r="C299" s="50"/>
       <c r="D299" s="40"/>
@@ -19412,34 +19640,34 @@
       <c r="F299" s="42"/>
       <c r="G299" s="43"/>
       <c r="H299" s="44">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="H299:H362" si="44">F299*G299</f>
         <v>0</v>
       </c>
       <c r="I299" s="45"/>
       <c r="J299" s="45"/>
       <c r="K299" s="44">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="K299:K362" si="45">H299+I299+J299</f>
         <v>0</v>
       </c>
       <c r="L299" s="50"/>
       <c r="M299" s="42"/>
       <c r="N299" s="43"/>
       <c r="O299" s="44">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="O299:O362" si="46">M299*N299</f>
         <v>0</v>
       </c>
       <c r="P299" s="45"/>
       <c r="Q299" s="45"/>
       <c r="R299" s="44">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="R299:R362" si="47">O299-P299-Q299</f>
         <v>0</v>
       </c>
       <c r="S299" s="44" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="S299:S362" si="48">IF(L299&lt;&gt;"",R299-K299,"")</f>
         <v/>
       </c>
       <c r="T299" s="46" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="T299:T362" si="49">IF(S299&lt;&gt;"",S299/K299,"")</f>
         <v/>
       </c>
       <c r="U299" s="47"/>
@@ -19448,7 +19676,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="300" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B300" s="39"/>
       <c r="C300" s="50"/>
       <c r="D300" s="40"/>
@@ -19492,7 +19720,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="301" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B301" s="39"/>
       <c r="C301" s="50"/>
       <c r="D301" s="40"/>
@@ -19536,7 +19764,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="302" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B302" s="39"/>
       <c r="C302" s="50"/>
       <c r="D302" s="40"/>
@@ -19580,7 +19808,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="303" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B303" s="39"/>
       <c r="C303" s="50"/>
       <c r="D303" s="40"/>
@@ -19624,7 +19852,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="304" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B304" s="39"/>
       <c r="C304" s="50"/>
       <c r="D304" s="40"/>
@@ -19668,7 +19896,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="305" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B305" s="39"/>
       <c r="C305" s="50"/>
       <c r="D305" s="40"/>
@@ -19712,7 +19940,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="306" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B306" s="39"/>
       <c r="C306" s="50"/>
       <c r="D306" s="40"/>
@@ -19756,7 +19984,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="307" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B307" s="39"/>
       <c r="C307" s="50"/>
       <c r="D307" s="40"/>
@@ -19800,7 +20028,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="308" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B308" s="39"/>
       <c r="C308" s="50"/>
       <c r="D308" s="40"/>
@@ -19844,7 +20072,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="309" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B309" s="39"/>
       <c r="C309" s="50"/>
       <c r="D309" s="40"/>
@@ -19888,7 +20116,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="310" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B310" s="39"/>
       <c r="C310" s="50"/>
       <c r="D310" s="40"/>
@@ -19932,7 +20160,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="311" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B311" s="39"/>
       <c r="C311" s="50"/>
       <c r="D311" s="40"/>
@@ -19976,7 +20204,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="312" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B312" s="39"/>
       <c r="C312" s="50"/>
       <c r="D312" s="40"/>
@@ -20020,7 +20248,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="313" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B313" s="39"/>
       <c r="C313" s="50"/>
       <c r="D313" s="40"/>
@@ -20064,7 +20292,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="314" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B314" s="39"/>
       <c r="C314" s="50"/>
       <c r="D314" s="40"/>
@@ -20108,7 +20336,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="315" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B315" s="39"/>
       <c r="C315" s="50"/>
       <c r="D315" s="40"/>
@@ -20152,7 +20380,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="316" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B316" s="39"/>
       <c r="C316" s="50"/>
       <c r="D316" s="40"/>
@@ -20196,7 +20424,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="317" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B317" s="39"/>
       <c r="C317" s="50"/>
       <c r="D317" s="40"/>
@@ -20240,7 +20468,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="318" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B318" s="39"/>
       <c r="C318" s="50"/>
       <c r="D318" s="40"/>
@@ -20284,7 +20512,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="319" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B319" s="39"/>
       <c r="C319" s="50"/>
       <c r="D319" s="40"/>
@@ -20328,7 +20556,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="320" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B320" s="39"/>
       <c r="C320" s="50"/>
       <c r="D320" s="40"/>
@@ -20372,7 +20600,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="321" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B321" s="39"/>
       <c r="C321" s="50"/>
       <c r="D321" s="40"/>
@@ -20416,7 +20644,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="322" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B322" s="39"/>
       <c r="C322" s="50"/>
       <c r="D322" s="40"/>
@@ -20460,7 +20688,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="323" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B323" s="39"/>
       <c r="C323" s="50"/>
       <c r="D323" s="40"/>
@@ -20504,7 +20732,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="324" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B324" s="39"/>
       <c r="C324" s="50"/>
       <c r="D324" s="40"/>
@@ -20548,7 +20776,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="325" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B325" s="39"/>
       <c r="C325" s="50"/>
       <c r="D325" s="40"/>
@@ -20592,7 +20820,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="326" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B326" s="39"/>
       <c r="C326" s="50"/>
       <c r="D326" s="40"/>
@@ -20636,7 +20864,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="327" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B327" s="39"/>
       <c r="C327" s="50"/>
       <c r="D327" s="40"/>
@@ -20676,11 +20904,11 @@
       </c>
       <c r="U327" s="47"/>
       <c r="W327" s="18" t="str">
-        <f t="shared" ref="W327:W390" si="50">IF(L327&lt;&gt;"",YEAR(L327),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B328" s="39"/>
       <c r="C328" s="50"/>
       <c r="D328" s="40"/>
@@ -20720,11 +20948,11 @@
       </c>
       <c r="U328" s="47"/>
       <c r="W328" s="18" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" ref="W328:W391" si="50">IF(L328&lt;&gt;"",YEAR(L328),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B329" s="39"/>
       <c r="C329" s="50"/>
       <c r="D329" s="40"/>
@@ -20768,7 +20996,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="330" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B330" s="39"/>
       <c r="C330" s="50"/>
       <c r="D330" s="40"/>
@@ -20812,7 +21040,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="331" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B331" s="39"/>
       <c r="C331" s="50"/>
       <c r="D331" s="40"/>
@@ -20856,7 +21084,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="332" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B332" s="39"/>
       <c r="C332" s="50"/>
       <c r="D332" s="40"/>
@@ -20900,7 +21128,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="333" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B333" s="39"/>
       <c r="C333" s="50"/>
       <c r="D333" s="40"/>
@@ -20944,7 +21172,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="334" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B334" s="39"/>
       <c r="C334" s="50"/>
       <c r="D334" s="40"/>
@@ -20988,7 +21216,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="335" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B335" s="39"/>
       <c r="C335" s="50"/>
       <c r="D335" s="40"/>
@@ -21032,7 +21260,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="336" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B336" s="39"/>
       <c r="C336" s="50"/>
       <c r="D336" s="40"/>
@@ -21076,7 +21304,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="337" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B337" s="39"/>
       <c r="C337" s="50"/>
       <c r="D337" s="40"/>
@@ -21120,7 +21348,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="338" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B338" s="39"/>
       <c r="C338" s="50"/>
       <c r="D338" s="40"/>
@@ -21164,7 +21392,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="339" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B339" s="39"/>
       <c r="C339" s="50"/>
       <c r="D339" s="40"/>
@@ -21208,7 +21436,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="340" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B340" s="39"/>
       <c r="C340" s="50"/>
       <c r="D340" s="40"/>
@@ -21252,7 +21480,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="341" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B341" s="39"/>
       <c r="C341" s="50"/>
       <c r="D341" s="40"/>
@@ -21296,7 +21524,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="342" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B342" s="39"/>
       <c r="C342" s="50"/>
       <c r="D342" s="40"/>
@@ -21340,7 +21568,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="343" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B343" s="39"/>
       <c r="C343" s="50"/>
       <c r="D343" s="40"/>
@@ -21384,7 +21612,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="344" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B344" s="39"/>
       <c r="C344" s="50"/>
       <c r="D344" s="40"/>
@@ -21428,7 +21656,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="345" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B345" s="39"/>
       <c r="C345" s="50"/>
       <c r="D345" s="40"/>
@@ -21472,7 +21700,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="346" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B346" s="39"/>
       <c r="C346" s="50"/>
       <c r="D346" s="40"/>
@@ -21516,7 +21744,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="347" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B347" s="39"/>
       <c r="C347" s="50"/>
       <c r="D347" s="40"/>
@@ -21560,7 +21788,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="348" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B348" s="39"/>
       <c r="C348" s="50"/>
       <c r="D348" s="40"/>
@@ -21604,7 +21832,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="349" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B349" s="39"/>
       <c r="C349" s="50"/>
       <c r="D349" s="40"/>
@@ -21648,7 +21876,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="350" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B350" s="39"/>
       <c r="C350" s="50"/>
       <c r="D350" s="40"/>
@@ -21692,7 +21920,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="351" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B351" s="39"/>
       <c r="C351" s="50"/>
       <c r="D351" s="40"/>
@@ -21736,7 +21964,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="352" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B352" s="39"/>
       <c r="C352" s="50"/>
       <c r="D352" s="40"/>
@@ -21780,7 +22008,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="353" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B353" s="39"/>
       <c r="C353" s="50"/>
       <c r="D353" s="40"/>
@@ -21824,7 +22052,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="354" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B354" s="39"/>
       <c r="C354" s="50"/>
       <c r="D354" s="40"/>
@@ -21868,7 +22096,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="355" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B355" s="39"/>
       <c r="C355" s="50"/>
       <c r="D355" s="40"/>
@@ -21912,7 +22140,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="356" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B356" s="39"/>
       <c r="C356" s="50"/>
       <c r="D356" s="40"/>
@@ -21956,7 +22184,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="357" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B357" s="39"/>
       <c r="C357" s="50"/>
       <c r="D357" s="40"/>
@@ -22000,7 +22228,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="358" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B358" s="39"/>
       <c r="C358" s="50"/>
       <c r="D358" s="40"/>
@@ -22044,7 +22272,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="359" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B359" s="39"/>
       <c r="C359" s="50"/>
       <c r="D359" s="40"/>
@@ -22088,7 +22316,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="360" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B360" s="39"/>
       <c r="C360" s="50"/>
       <c r="D360" s="40"/>
@@ -22132,7 +22360,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="361" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B361" s="39"/>
       <c r="C361" s="50"/>
       <c r="D361" s="40"/>
@@ -22176,7 +22404,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="362" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B362" s="39"/>
       <c r="C362" s="50"/>
       <c r="D362" s="40"/>
@@ -22184,34 +22412,34 @@
       <c r="F362" s="42"/>
       <c r="G362" s="43"/>
       <c r="H362" s="44">
-        <f t="shared" ref="H362:H401" si="51">F362*G362</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I362" s="45"/>
       <c r="J362" s="45"/>
       <c r="K362" s="44">
-        <f t="shared" ref="K362:K401" si="52">H362+I362+J362</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="L362" s="50"/>
       <c r="M362" s="42"/>
       <c r="N362" s="43"/>
       <c r="O362" s="44">
-        <f t="shared" ref="O362:O401" si="53">M362*N362</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P362" s="45"/>
       <c r="Q362" s="45"/>
       <c r="R362" s="44">
-        <f t="shared" ref="R362:R401" si="54">O362-P362-Q362</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="S362" s="44" t="str">
-        <f t="shared" ref="S362:S401" si="55">IF(L362&lt;&gt;"",R362-K362,"")</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="T362" s="46" t="str">
-        <f t="shared" ref="T362:T401" si="56">IF(S362&lt;&gt;"",S362/K362,"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="U362" s="47"/>
@@ -22220,7 +22448,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="363" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B363" s="39"/>
       <c r="C363" s="50"/>
       <c r="D363" s="40"/>
@@ -22228,34 +22456,34 @@
       <c r="F363" s="42"/>
       <c r="G363" s="43"/>
       <c r="H363" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H363:H402" si="51">F363*G363</f>
         <v>0</v>
       </c>
       <c r="I363" s="45"/>
       <c r="J363" s="45"/>
       <c r="K363" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="K363:K402" si="52">H363+I363+J363</f>
         <v>0</v>
       </c>
       <c r="L363" s="50"/>
       <c r="M363" s="42"/>
       <c r="N363" s="43"/>
       <c r="O363" s="44">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="O363:O402" si="53">M363*N363</f>
         <v>0</v>
       </c>
       <c r="P363" s="45"/>
       <c r="Q363" s="45"/>
       <c r="R363" s="44">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="R363:R402" si="54">O363-P363-Q363</f>
         <v>0</v>
       </c>
       <c r="S363" s="44" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="S363:S402" si="55">IF(L363&lt;&gt;"",R363-K363,"")</f>
         <v/>
       </c>
       <c r="T363" s="46" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="T363:T402" si="56">IF(S363&lt;&gt;"",S363/K363,"")</f>
         <v/>
       </c>
       <c r="U363" s="47"/>
@@ -22264,7 +22492,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="364" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B364" s="39"/>
       <c r="C364" s="50"/>
       <c r="D364" s="40"/>
@@ -22308,7 +22536,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="365" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B365" s="39"/>
       <c r="C365" s="50"/>
       <c r="D365" s="40"/>
@@ -22352,7 +22580,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="366" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B366" s="39"/>
       <c r="C366" s="50"/>
       <c r="D366" s="40"/>
@@ -22396,7 +22624,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="367" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B367" s="39"/>
       <c r="C367" s="50"/>
       <c r="D367" s="40"/>
@@ -22440,7 +22668,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="368" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B368" s="39"/>
       <c r="C368" s="50"/>
       <c r="D368" s="40"/>
@@ -22484,7 +22712,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="369" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B369" s="39"/>
       <c r="C369" s="50"/>
       <c r="D369" s="40"/>
@@ -22528,7 +22756,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="370" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B370" s="39"/>
       <c r="C370" s="50"/>
       <c r="D370" s="40"/>
@@ -22572,7 +22800,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="371" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B371" s="39"/>
       <c r="C371" s="50"/>
       <c r="D371" s="40"/>
@@ -22616,7 +22844,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="372" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B372" s="39"/>
       <c r="C372" s="50"/>
       <c r="D372" s="40"/>
@@ -22660,7 +22888,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="373" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B373" s="39"/>
       <c r="C373" s="50"/>
       <c r="D373" s="40"/>
@@ -22704,7 +22932,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="374" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B374" s="39"/>
       <c r="C374" s="50"/>
       <c r="D374" s="40"/>
@@ -22748,7 +22976,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="375" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B375" s="39"/>
       <c r="C375" s="50"/>
       <c r="D375" s="40"/>
@@ -22792,7 +23020,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="376" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B376" s="39"/>
       <c r="C376" s="50"/>
       <c r="D376" s="40"/>
@@ -22836,7 +23064,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="377" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B377" s="39"/>
       <c r="C377" s="50"/>
       <c r="D377" s="40"/>
@@ -22880,7 +23108,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="378" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B378" s="39"/>
       <c r="C378" s="50"/>
       <c r="D378" s="40"/>
@@ -22924,7 +23152,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="379" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B379" s="39"/>
       <c r="C379" s="50"/>
       <c r="D379" s="40"/>
@@ -22968,7 +23196,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="380" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B380" s="39"/>
       <c r="C380" s="50"/>
       <c r="D380" s="40"/>
@@ -23012,7 +23240,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="381" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B381" s="39"/>
       <c r="C381" s="50"/>
       <c r="D381" s="40"/>
@@ -23056,7 +23284,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="382" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B382" s="39"/>
       <c r="C382" s="50"/>
       <c r="D382" s="40"/>
@@ -23100,7 +23328,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="383" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B383" s="39"/>
       <c r="C383" s="50"/>
       <c r="D383" s="40"/>
@@ -23144,7 +23372,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="384" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B384" s="39"/>
       <c r="C384" s="50"/>
       <c r="D384" s="40"/>
@@ -23188,7 +23416,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="385" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B385" s="39"/>
       <c r="C385" s="50"/>
       <c r="D385" s="40"/>
@@ -23232,7 +23460,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="386" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B386" s="39"/>
       <c r="C386" s="50"/>
       <c r="D386" s="40"/>
@@ -23276,7 +23504,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="387" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B387" s="39"/>
       <c r="C387" s="50"/>
       <c r="D387" s="40"/>
@@ -23320,7 +23548,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="388" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B388" s="39"/>
       <c r="C388" s="50"/>
       <c r="D388" s="40"/>
@@ -23364,7 +23592,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="389" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B389" s="39"/>
       <c r="C389" s="50"/>
       <c r="D389" s="40"/>
@@ -23408,7 +23636,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="390" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B390" s="39"/>
       <c r="C390" s="50"/>
       <c r="D390" s="40"/>
@@ -23452,7 +23680,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="391" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B391" s="39"/>
       <c r="C391" s="50"/>
       <c r="D391" s="40"/>
@@ -23492,11 +23720,11 @@
       </c>
       <c r="U391" s="47"/>
       <c r="W391" s="18" t="str">
-        <f t="shared" ref="W391:W454" si="57">IF(L391&lt;&gt;"",YEAR(L391),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B392" s="39"/>
       <c r="C392" s="50"/>
       <c r="D392" s="40"/>
@@ -23536,11 +23764,11 @@
       </c>
       <c r="U392" s="47"/>
       <c r="W392" s="18" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="2:23" x14ac:dyDescent="0.1">
+        <f t="shared" ref="W392:W455" si="57">IF(L392&lt;&gt;"",YEAR(L392),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B393" s="39"/>
       <c r="C393" s="50"/>
       <c r="D393" s="40"/>
@@ -23584,7 +23812,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="394" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B394" s="39"/>
       <c r="C394" s="50"/>
       <c r="D394" s="40"/>
@@ -23628,7 +23856,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="395" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B395" s="39"/>
       <c r="C395" s="50"/>
       <c r="D395" s="40"/>
@@ -23672,7 +23900,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="396" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B396" s="39"/>
       <c r="C396" s="50"/>
       <c r="D396" s="40"/>
@@ -23716,7 +23944,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="397" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B397" s="39"/>
       <c r="C397" s="50"/>
       <c r="D397" s="40"/>
@@ -23760,7 +23988,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="398" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B398" s="39"/>
       <c r="C398" s="50"/>
       <c r="D398" s="40"/>
@@ -23804,7 +24032,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="399" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B399" s="39"/>
       <c r="C399" s="50"/>
       <c r="D399" s="40"/>
@@ -23848,7 +24076,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="400" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B400" s="39"/>
       <c r="C400" s="50"/>
       <c r="D400" s="40"/>
@@ -23892,7 +24120,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="401" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B401" s="39"/>
       <c r="C401" s="50"/>
       <c r="D401" s="40"/>
@@ -23936,26 +24164,44 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="2:23" x14ac:dyDescent="0.1">
+    <row r="402" spans="2:23" ht="13.15" x14ac:dyDescent="0.1">
       <c r="B402" s="39"/>
-      <c r="C402" s="51"/>
-      <c r="D402" s="47"/>
+      <c r="C402" s="50"/>
+      <c r="D402" s="40"/>
       <c r="E402" s="41"/>
-      <c r="F402" s="47"/>
-      <c r="G402" s="47"/>
-      <c r="H402" s="47"/>
-      <c r="I402" s="47"/>
-      <c r="J402" s="47"/>
-      <c r="K402" s="47"/>
-      <c r="L402" s="51"/>
-      <c r="M402" s="47"/>
-      <c r="N402" s="47"/>
-      <c r="O402" s="47"/>
-      <c r="P402" s="47"/>
-      <c r="Q402" s="47"/>
-      <c r="R402" s="47"/>
-      <c r="S402" s="47"/>
-      <c r="T402" s="47"/>
+      <c r="F402" s="42"/>
+      <c r="G402" s="43"/>
+      <c r="H402" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="I402" s="45"/>
+      <c r="J402" s="45"/>
+      <c r="K402" s="44">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L402" s="50"/>
+      <c r="M402" s="42"/>
+      <c r="N402" s="43"/>
+      <c r="O402" s="44">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P402" s="45"/>
+      <c r="Q402" s="45"/>
+      <c r="R402" s="44">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="S402" s="44" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="T402" s="46" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
       <c r="U402" s="47"/>
       <c r="W402" s="18" t="str">
         <f t="shared" si="57"/>
@@ -24457,6 +24703,26 @@
       </c>
     </row>
     <row r="422" spans="2:23" x14ac:dyDescent="0.1">
+      <c r="B422" s="39"/>
+      <c r="C422" s="51"/>
+      <c r="D422" s="47"/>
+      <c r="E422" s="41"/>
+      <c r="F422" s="47"/>
+      <c r="G422" s="47"/>
+      <c r="H422" s="47"/>
+      <c r="I422" s="47"/>
+      <c r="J422" s="47"/>
+      <c r="K422" s="47"/>
+      <c r="L422" s="51"/>
+      <c r="M422" s="47"/>
+      <c r="N422" s="47"/>
+      <c r="O422" s="47"/>
+      <c r="P422" s="47"/>
+      <c r="Q422" s="47"/>
+      <c r="R422" s="47"/>
+      <c r="S422" s="47"/>
+      <c r="T422" s="47"/>
+      <c r="U422" s="47"/>
       <c r="W422" s="18" t="str">
         <f t="shared" si="57"/>
         <v/>
@@ -24656,13 +24922,13 @@
     </row>
     <row r="455" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W455" s="18" t="str">
-        <f t="shared" ref="W455:W518" si="58">IF(L455&lt;&gt;"",YEAR(L455),"")</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W456" s="18" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="W456:W519" si="58">IF(L456&lt;&gt;"",YEAR(L456),"")</f>
         <v/>
       </c>
     </row>
@@ -25040,13 +25306,13 @@
     </row>
     <row r="519" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W519" s="18" t="str">
-        <f t="shared" ref="W519:W582" si="59">IF(L519&lt;&gt;"",YEAR(L519),"")</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W520" s="18" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="W520:W583" si="59">IF(L520&lt;&gt;"",YEAR(L520),"")</f>
         <v/>
       </c>
     </row>
@@ -25424,13 +25690,13 @@
     </row>
     <row r="583" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W583" s="18" t="str">
-        <f t="shared" ref="W583:W646" si="60">IF(L583&lt;&gt;"",YEAR(L583),"")</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
     </row>
     <row r="584" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W584" s="18" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="W584:W647" si="60">IF(L584&lt;&gt;"",YEAR(L584),"")</f>
         <v/>
       </c>
     </row>
@@ -25808,13 +26074,13 @@
     </row>
     <row r="647" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W647" s="18" t="str">
-        <f t="shared" ref="W647:W710" si="61">IF(L647&lt;&gt;"",YEAR(L647),"")</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
     </row>
     <row r="648" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W648" s="18" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="W648:W711" si="61">IF(L648&lt;&gt;"",YEAR(L648),"")</f>
         <v/>
       </c>
     </row>
@@ -26192,13 +26458,13 @@
     </row>
     <row r="711" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W711" s="18" t="str">
-        <f t="shared" ref="W711:W774" si="62">IF(L711&lt;&gt;"",YEAR(L711),"")</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
     </row>
     <row r="712" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W712" s="18" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="W712:W775" si="62">IF(L712&lt;&gt;"",YEAR(L712),"")</f>
         <v/>
       </c>
     </row>
@@ -26576,13 +26842,13 @@
     </row>
     <row r="775" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W775" s="18" t="str">
-        <f t="shared" ref="W775:W838" si="63">IF(L775&lt;&gt;"",YEAR(L775),"")</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
     </row>
     <row r="776" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W776" s="18" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="W776:W839" si="63">IF(L776&lt;&gt;"",YEAR(L776),"")</f>
         <v/>
       </c>
     </row>
@@ -26960,13 +27226,13 @@
     </row>
     <row r="839" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W839" s="18" t="str">
-        <f t="shared" ref="W839:W902" si="64">IF(L839&lt;&gt;"",YEAR(L839),"")</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
     </row>
     <row r="840" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W840" s="18" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="W840:W903" si="64">IF(L840&lt;&gt;"",YEAR(L840),"")</f>
         <v/>
       </c>
     </row>
@@ -27344,13 +27610,13 @@
     </row>
     <row r="903" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W903" s="18" t="str">
-        <f t="shared" ref="W903:W966" si="65">IF(L903&lt;&gt;"",YEAR(L903),"")</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
     </row>
     <row r="904" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W904" s="18" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="W904:W967" si="65">IF(L904&lt;&gt;"",YEAR(L904),"")</f>
         <v/>
       </c>
     </row>
@@ -27728,13 +27994,13 @@
     </row>
     <row r="967" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W967" s="18" t="str">
-        <f t="shared" ref="W967:W1001" si="66">IF(L967&lt;&gt;"",YEAR(L967),"")</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
     </row>
     <row r="968" spans="23:23" x14ac:dyDescent="0.1">
       <c r="W968" s="18" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="W968:W1002" si="66">IF(L968&lt;&gt;"",YEAR(L968),"")</f>
         <v/>
       </c>
     </row>
@@ -27936,16 +28202,22 @@
         <v/>
       </c>
     </row>
+    <row r="1002" spans="23:23" x14ac:dyDescent="0.1">
+      <c r="W1002" s="18" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:W401" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:W402" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="S5:T401">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="S5:T402">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28110,7 +28382,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28571,7 +28843,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29693,7 +29965,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O25">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29742,11 +30014,11 @@
         <v>2010</v>
       </c>
       <c r="D28" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C28)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C28)</f>
         <v>7</v>
       </c>
       <c r="E28" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C28,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C28,約定履歴!$S$5:$S$1002)</f>
         <v>-26600</v>
       </c>
     </row>
@@ -29758,11 +30030,11 @@
         <v>2011</v>
       </c>
       <c r="D29" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C29)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C29)</f>
         <v>1</v>
       </c>
       <c r="E29" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C29,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C29,約定履歴!$S$5:$S$1002)</f>
         <v>3500</v>
       </c>
     </row>
@@ -29774,11 +30046,11 @@
         <v>2012</v>
       </c>
       <c r="D30" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C30)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C30)</f>
         <v>9</v>
       </c>
       <c r="E30" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C30,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C30,約定履歴!$S$5:$S$1002)</f>
         <v>1617000</v>
       </c>
     </row>
@@ -29790,11 +30062,11 @@
         <v>2013</v>
       </c>
       <c r="D31" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C31)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C31)</f>
         <v>2</v>
       </c>
       <c r="E31" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C31,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C31,約定履歴!$S$5:$S$1002)</f>
         <v>190500</v>
       </c>
     </row>
@@ -29806,11 +30078,11 @@
         <v>2014</v>
       </c>
       <c r="D32" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C32)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C32)</f>
         <v>29</v>
       </c>
       <c r="E32" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C32,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C32,約定履歴!$S$5:$S$1002)</f>
         <v>-567100</v>
       </c>
     </row>
@@ -29822,11 +30094,11 @@
         <v>2015</v>
       </c>
       <c r="D33" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C33)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C33)</f>
         <v>29</v>
       </c>
       <c r="E33" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C33,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C33,約定履歴!$S$5:$S$1002)</f>
         <v>96910</v>
       </c>
     </row>
@@ -29838,11 +30110,11 @@
         <v>2016</v>
       </c>
       <c r="D34" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C34)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C34)</f>
         <v>0</v>
       </c>
       <c r="E34" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C34,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C34,約定履歴!$S$5:$S$1002)</f>
         <v>0</v>
       </c>
     </row>
@@ -29854,11 +30126,11 @@
         <v>2017</v>
       </c>
       <c r="D35" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C35)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C35)</f>
         <v>0</v>
       </c>
       <c r="E35" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C35,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C35,約定履歴!$S$5:$S$1002)</f>
         <v>0</v>
       </c>
     </row>
@@ -29870,11 +30142,11 @@
         <v>2018</v>
       </c>
       <c r="D36" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C36)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C36)</f>
         <v>0</v>
       </c>
       <c r="E36" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C36,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C36,約定履歴!$S$5:$S$1002)</f>
         <v>0</v>
       </c>
     </row>
@@ -29886,11 +30158,11 @@
         <v>2019</v>
       </c>
       <c r="D37" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C37)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C37)</f>
         <v>0</v>
       </c>
       <c r="E37" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C37,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C37,約定履歴!$S$5:$S$1002)</f>
         <v>0</v>
       </c>
     </row>
@@ -29902,11 +30174,11 @@
         <v>2020</v>
       </c>
       <c r="D38" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C38)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C38)</f>
         <v>0</v>
       </c>
       <c r="E38" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C38,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C38,約定履歴!$S$5:$S$1002)</f>
         <v>0</v>
       </c>
     </row>
@@ -29918,11 +30190,11 @@
         <v>2021</v>
       </c>
       <c r="D39" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C39)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C39)</f>
         <v>5</v>
       </c>
       <c r="E39" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C39,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C39,約定履歴!$S$5:$S$1002)</f>
         <v>214000</v>
       </c>
     </row>
@@ -29934,11 +30206,11 @@
         <v>2022</v>
       </c>
       <c r="D40" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C40)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C40)</f>
         <v>2</v>
       </c>
       <c r="E40" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C40,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C40,約定履歴!$S$5:$S$1002)</f>
         <v>100517</v>
       </c>
     </row>
@@ -29950,11 +30222,11 @@
         <v>2023</v>
       </c>
       <c r="D41" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C41)</f>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C41)</f>
         <v>2</v>
       </c>
       <c r="E41" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C41,約定履歴!$S$5:$S$1001)</f>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C41,約定履歴!$S$5:$S$1002)</f>
         <v>276609</v>
       </c>
     </row>
@@ -29966,12 +30238,12 @@
         <v>2024</v>
       </c>
       <c r="D42" s="18">
-        <f>COUNTIF(約定履歴!$W$5:$W$1001,サマリ!C42)</f>
-        <v>29</v>
+        <f>COUNTIF(約定履歴!$W$5:$W$1002,サマリ!C42)</f>
+        <v>35</v>
       </c>
       <c r="E42" s="19">
-        <f>SUMIF(約定履歴!$W$5:$W$1001,サマリ!C42,約定履歴!$S$5:$S$1001)</f>
-        <v>581120</v>
+        <f>SUMIF(約定履歴!$W$5:$W$1002,サマリ!C42,約定履歴!$S$5:$S$1002)</f>
+        <v>599830</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.1">
@@ -31627,7 +31899,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="S4:T39">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33140,7 +33412,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O4:P39">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34559,7 +34831,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="O4:P39">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36405,7 +36677,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O39">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38009,7 +38281,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O32">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38223,7 +38495,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O5">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38692,7 +38964,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N4:O12">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
